--- a/Base/Teams/Giants/Team Data.xlsx
+++ b/Base/Teams/Giants/Team Data.xlsx
@@ -35,16 +35,16 @@
     <t>P</t>
   </si>
   <si>
-    <t>-1 7 -5 1 -4 1 -2 -2 -2 5 -4 4 1 4 6 2 7 -1 13 -1 5 18 0 6 3 6 3 2 7 1 -1 3 2 12 6 0 4 0 6 19 3 2 1 23 -3 7 3 16 1 0 3 8 -1 3 4 4 4 2 4 4 10 3 3 1 3 6 5 10 26 4 3 3 0 13 11 9 2 9 3 2 3 8 2 4 0 1 3 2 5 1 2 4 1 7 -6 6 13 1 6 -2 4 14 -3 -3 5 4 49 0 -1 9 5 8 9 -1 1 8 3 4 0 3 7 2 7 1 4 7 7 10 3 2 3 2 -1 80 1 -2 2 4 0 19 -4 1 14 10 3 0 2 -2 2 2 1 9 1 6 11 3 17 6 4 2 2 1 2 6 5 4 -1 15 7 18 5 6 4 2 4 2 5 2 19 11 5 5 8 1 0 12 3 5 5 3 20 1 -2 2 2 6 -2 4 6 17 2 34 2 6 2 4 10 5 4 0 0 1 6 3 3 4 0 8 1 1 10 1 9 6 1 0 4 -3 6 2 -4 5 4 2 1 0 4 5 3 13 2 1 4 -1 2 4 5 18 4 7 2 4 2 5 2 2 -1 4 7 5 -2 3 -1 3 3 4 2 8 2 5 4 1 -1 6 4 5 3 3 0 5 9 2 3 60 13 4 3 13 23 3 4 0 3 1 5 3 6 -1 8 4 1 3 5 3 0 6 0 13 3 16 3 1 9 -1 4 9 2 2 5 -3 7 8 2 0 2 12 4 4 4 3 1 -3 1 14 3 5 6 1 1 9 3 3 3 15 3 8 10 7 23 3 0 1 1 2 11 4 0 3 5 2 2 7 0 5 11 -1 1 4 5 8 5 -2 4 2 -1 1 5 2 3 7 3 5 2 4 2 6 1 4 5 2 15 -2 2 6 41 6 2 7 5 3 0 9 -1 -6 2 -9 7 2 2 5 11 1 1 2 8 7 2 5 12 -3 15 2 -1 3 4 0 4 6 -3 2 4 2 6 11 4 4 1 1 6 -1 0 4 0 1 7 8 1 17 20 1 1 -3 2 4 1 4 2 1 6 6 4 6 5 1 4 3 4 1 14 2 4 1 0 0 -1 4 0 2 4 -2 7 3 4 4 14 9 2 3 0 2 2 0 6 -1 2 4 2 2 5 4 14 -1 7 2 2 0 1 9 3 0 -2 -2 7 11 3 4 2 3 6 2 2 -2 4 19 0 4 9 2 0 2 -3 11 2 2 6 2 14 5 4 0 3 5 4 10 2 2 6 4 16 5 5 6 2 -2 2 6 1 6 20 5 2 3 5 2 0 5 7 5 2 3 8 -3 4 11 12 2 2 8 6 0 1 3 16 1 2 12 0 9 6 5 0 2 14 2 2 1 1 32 6 -1 -3 7 -4 3 4 13 -1 1 4 3 5 0 1 -1</t>
-  </si>
-  <si>
-    <t>13 14 7 1 11 12 41 14 18 5 13 10 4 4 5 5 4 15 10 6 7 7 5 7 5 17 15 24 12 13 -3 7 7 11 20 12 6 4 2 12 10 11 8 22 4 9 4 2 18 9 13 23 0 11 2 9 8 5 5 10 29 4 22 -7 8 17 -2 10 12 4 6 11 -1 8 12 8 9 7 -1 9 15 13 4 33 5 12 17 18 7 9 3 11 21 16 12 16 -3 7 10 39 3 9 14 -1 2 21 8 10 23 5 9 -4 1 9 18 1 11 39 5 7 -4 17 29 9 12 0 5 0 7 11 7 7 12 5 9 2 8 8 18 0 7 11 5 12 14 11 11 12 6 15 4 11 9 1 12 1 6 10 19 6 6 3 50 4 2 7 8 21 8 10 16 8 7 3 7 12 4 8 7 9 6 0 22 4 11 9 12 3 8 4 17 11 1 4 6 27 38 7 16 7 0 40 -3 6 4 53 6 12 9 11 7 10 18 16 5 7 5 44 2 -9 13 -1 8 15 5 9 22 16 14 11 3 7 -2 3 6 8 6 14 13 6 7 11 3 4 10 3 39 7 24 4 22 35 -1 12 9 14 0 7 1 21 8 10 14 13 24 5 9 12 6 10 7 14 13 9 11 11 4 15 16 19 20 8 -5 7 0 9 16 13 11 3 12 14 15 14 16 9 15 21 10 10 4 2 2 18 33 7 16 3 9 21 13 10 42 -6 4 17 1 6 8 37 2 15 20 8 17 14 6 16 16 6 9 15 8 6 12 16 13 4 4 8 2 6 17 3 4 2 8 12 19 33 13 21 10 8 21 13 14 8 38 19 8 18 12 9 7 4 16 0 13 13 11 10 12 3 7 5 16 4 9 10 13 -4 6 18 4 27 51 19 7 8 17 20 8 4 5 21 1 54 8 5 11 3 28 17 8 18 1 23 38 5 9 18 28 6 35 6 2 26 5 13 13 16 14 13 13 11 7 13 17 8 3 16 2 9 4 14 7 8 3 10 10 11 6 10 3 10 1 11 12 11 11 7 6 2 15 -2 6 18 7 1 27 15 7 16 15 1 6 8 15 -4 2 14 16 2 5 8 9 12 5 50 19 3 11 1 12 41 2 5 4 22 4 6 11 6 5 7 16 4 3 3 9 5 30 6 12 7 -7 14 3 14 2 9 1 -1 6 9 12 9 4 3 5 5 0 11 21 4 28 8 11 8 -1 7 2 4 5 5 1 20 7 18 19 6 14 9 0 10 17 17 1 18 18 5 4 10 8</t>
-  </si>
-  <si>
-    <t>2 3 0 3 1 3 6 -1 1 8 1 5 11 3 14 5 0 21 -2 1 5 0 30 2 4 1 7 1 3 2 5 -1 4 7 1 1 3 8 10 1 3 3 1 2 0 4 4 3 2 2 5 6 11 10 -1 12 23 0 1 0 3 1 9 0 3 4 4 -3 -1 5 4 4 0 -1 -3 11 10 5 2 0 19 19 1 -1 2 3 1 23 3 6 3 -2 2 2 2 4 3 3 2 4 2 9 -1 13 3 4 0 3 5 1 -2 2 3 2 -2 2 9 9 5 5 3 8 3 8 1 0 1 9 7 1 13 9 12 0 0 7 4 7 -1 3 -2 2 4 1 14 5 0 0 0 6 0 0 3 8 -1 2 4 11 6 2 6 1 4 2 3 1 12 5 8 1 0 1 1 2 3 7 5 3 10 3 2 0 2 1 2 0 4 6 12 4 2 4 5 5 2 13 1 2 2 7 2 3 7 7 0 3 3 2 -2 2 7 0 2 2 5 1 10 -1 6 11 1 5 9 11 2 7 2 4 5 -1 5 3 14 56 4 0 14 5 13 -1 4 1 -2 0 0 1 2 -4 4 2 15 2 1 8 4 -2 1 11 11 0 7 12 4 7 2 0 7 3 1 19 11 3 0 1 1 1 5 2 3 3 0 -4 6 3 10 2 1 5 2 -1 15 -1 1 -4 11 12 2 4 3 5 36 3 4 1 4 4 5 3 7 7 10 1 1 -3 -3 0 1 6 4 4 3 1 5 -2 1 2 -1 4 14 4 4 4 -1 6 5 3 15 4 1 2 -2 0 1 1 21 -1 3 1 4 3 5 6 2 7 8 5 1 18 3 6 2 6 17 2 9 5 7 3 2 7 7 20 32 0 7 1 25 5 6 3 6 0 3 0 7 0 0 3 13 -2 2 2 3 0 6 0 2 7 3 2 2 5 1 6 5 13 -2 2 3 4 4 4 9 -1 2 5 2 9 2 2 -2 8 7 3 0 5 4 6 6 2 2 12 3 8 0 2 4 70 3 -1 2 1 6 2 5 0 5 1 10 2 2 2 2 7 14 3 1 3 1 11 3 4 1 0 5 2 11 1 3 11 5 10 3 3 3 2 0 2 1 3 -1 6 10 6 3 3 3 2 5 4 2 3 8 1 3 2 5 8 1 8 5 3 4 6 9 2 9 4 4 4 8 7 1 0 3 2 8 1 5 2 15 4 4 6 6 17 4 5 3 6 6 3 5 12 0 0 14 0 4 3 7 -2 5 3 14 0 10 2 2 7 4 13 2 2 2 3 2 1 0 22 9 15 0 4 3 4 2 2 8 0 8 6 10 5 3 1 3 0 1 9 6 5 2 4 5 0 3 3 0 3 6 13 7 -3 2 -2 2 2 4 7 -4 0 1 3 2 5 2 10 -3 4 2 4 4 9 7 5 9 3 8 12 -1 3 4 6 0 -1 1 8 6 -1 11 6 13 3 0 13 3 7 2 1 14 4 1 0 3 4 21 2 3 7 10 7 6 3 2 5 10 3 3 4 6 2 7 -1 3 4 9 2 2 1 3 -3 2 -1 -1 1 7 4 5 3 2 11 5 7 2 14 18 6 1 27 3 5 12 5 4 13 5 13 12 1 1 6 3 4 3 4</t>
-  </si>
-  <si>
-    <t>11 28 6 2 18 3 10 2 21 17 14 13 9 10 18 1 11 5 11 11 8 17 15 2 28 18 9 -1 14 16 12 2 12 15 4 8 5 9 20 14 11 12 9 1 14 7 14 17 20 14 26 8 14 19 6 5 11 19 19 18 9 20 16 9 16 8 8 8 10 5 7 11 5 4 -2 0 15 -1 4 7 -1 1 2 7 8 7 7 55 6 18 10 14 3 13 4 10 8 5 26 6 21 11 22 11 8 8 9 -7 10 15 19 38 9 4 3 29 10 8 11 20 8 12 2 0 8 7 5 11 6 4 5 10 11 5 18 5 3 13 6 8 22 10 8 9 18 15 13 12 8 16 14 6 10 1 15 16 7 3 6 11 40 59 3 11 30 18 9 19 3 10 3 7 14 3 9 2 8 9 15 12 8 1 9 8 4 16 3 20 25 8 18 21 7 11 11 12 6 0 7 6 14 32 45 8 6 33 7 15 3 6 8 8 68 8 5 8 7 10 11 4 8 8 5 22 19 15 6 1 6 5 16 8 16 5 9 13 7 6 12 9 16 11 1 5 1 10 2 4 13 7 14 4 5 18 16 1 5 6 24 6 6 6 4 12 18 6 21 -6 5 14 1 5 3 10 11 9 5 21 12 28 6 15 10 5 5 15 17 1 8 20 1 7 2 12 24 9 9 7 4 8 10 13 -3 7 41 11 11 3 5 8 17 4 6 17 10 22 9 2 7 18 15 22 5 2 12 18 20 8 22 6 17 8 19 -5 13 13 9 6 11 6 11 20 0 7 25 6 10 4 8 27 7 4 9 3 13 16 9 6 14 9 6 11 7 21 7 10 -3 5 20 7 10 8 3 16 3 10 5 3 5 7 15 13 7 6 1 9 5 25 -4 5 11 6 2 6 17 16 2 10 6 8 20 7 22 13 3 7 5 22 12 4 4 16 11 8 12 0 24 12 7 6 10 7 4 4 8 18 9 0 3 10 7 56 19 2 7 9 5 7 6 3 8 19 3 4 9 20 4 6 12 14 3 4 1 12 3 -1 10 26 4 6 14 4 1 1 28 25 -3 11 9 6 18 2 11 6 5 6 19 15 58 9 21 15 3 16 8 6 8 6 2 49 6 8 -2 11 21 7 15 24 11 30 15 4 8 14 18 22 35 7 30 16 6 28 10 15 9 4 4 -6 9 -4 16 25 4 4 5 18 5 6 13 4 2 9 1 3 5 5 12 21 5 12 6 13 7 5 1 7 7 19 10 3 9 12 7 0 15 5 6 6 7 11 9 17 9 3 11 12 9 18 8 4 9 10 10 15 14 24 2 6 6 20 6 2 8 3 7 8 10 20 7 2 15 9 5 9 20 24 22 11 2 3 12 3 19 9 17 8 3 10 8 15 3 13 7 10 8 6 6 6 7 4 35 7 12 16 3 13 9 17 14 14 18 4 5 8 3 21 5 3 14 0 19 2 0 13 4 21 6 10 8 7 14 11</t>
+    <t>-1 7 -5 1 -4 1 -2 -2 -2 5 -4 4 1 4 6 2 7 -1 13 -1 5 18 0 6 3 6 3 2 7 1 -1 3 2 12 6 0 4 0 6 19 3 2 1 23 -3 7 3 16 1 0 3 8 -1 3 4 4 4 2 4 4 10 3 3 1 3 6 5 10 26 4 3 3 0 13 11 9 2 9 3 2 3 8 2 4 0 1 3 2 5 1 2 4 1 7 -6 6 13 1 6 -2 4 14 -3 -3 5 4 49 0 -1 9 5 8 9 -1 1 8 3 4 0 3 7 2 7 1 4 7 7 10 3 2 3 2 -1 80 1 -2 2 4 0 19 -4 1 14 10 3 0 2 -2 2 2 1 9 1 6 11 3 17 6 4 2 2 1 2 6 5 4 -1 15 7 18 5 6 4 2 4 2 5 2 19 11 5 5 8 1 0 12 3 5 5 3 20 1 -2 2 2 6 -2 4 6 17 2 34 2 6 2 4 10 5 4 0 0 1 6 3 3 4 0 8 1 1 10 1 9 6 1 0 4 -3 6 2 -4 5 4 2 1 0 4 5 3 13 2 1 4 -1 2 4 5 18 4 7 2 4 2 5 2 2 -1 4 7 5 -2 3 -1 3 3 4 2 8 2 5 4 1 -1 6 4 5 3 3 0 5 9 2 3 60 13 4 3 13 23 3 4 0 3 1 5 3 6 -1 8 4 1 3 5 3 0 6 0 13 3 16 3 1 9 -1 4 9 2 2 5 -3 7 8 2 0 2 12 4 4 4 3 1 -3 1 14 3 5 6 1 1 9 3 3 3 15 3 8 10 7 23 3 0 1 1 2 11 4 0 3 5 2 2 7 0 5 11 -1 1 4 5 8 5 -2 4 2 -1 1 5 2 3 7 3 5 2 4 2 6 1 4 5 2 15 -2 2 6 41 6 2 7 5 3 0 9 -1 -6 2 -9 7 2 2 5 11 1 1 2 8 7 2 5 12 -3 15 2 -1 3 4 0 4 6 -3 2 4 2 6 11 4 4 1 1 6 -1 0 4 0 1 7 8 1 17 20 1 1 -3 2 4 1 4 2 1 6 6 4 6 5 1 4 3 4 1 14 2 4 1 0 0 -1 4 0 2 4 -2 7 3 4 4 14 9 2 3 0 2 2 0 6 -1 2 4 2 2 5 4 14 -1 7 2 2 0 1 9 3 0 -2 -2 7 11 3 4 2 3 6 2 2 -2 4 19 0 4 9 2 0 2 -3 11 2 2 6 2 14 5 4 0 3 5 4 10 2 2 6 4 16 5 5 6 2 -2 2 6 1 6 20 5 2 3 5 2 0 5 7 5 2 3 8 -3 4 11 12 2 2 8 6 0 1 3 16 1 2 12 0 9 6 5 0 2 14 2 2 1 1 32 6 -1 -3 7 -4 3 4 13 -1 1 4 3 5 0 1 -1 3 3 10 -2 0 1 0 7 0 23 17 1 0 9 13 3</t>
+  </si>
+  <si>
+    <t>13 14 7 1 11 12 41 14 18 5 13 10 4 4 5 5 4 15 10 6 7 7 5 7 5 17 15 24 12 13 -3 7 7 11 20 12 6 4 2 12 10 11 8 22 4 9 4 2 18 9 13 23 0 11 2 9 8 5 5 10 29 4 22 -7 8 17 -2 10 12 4 6 11 -1 8 12 8 9 7 -1 9 15 13 4 33 5 12 17 18 7 9 3 11 21 16 12 16 -3 7 10 39 3 9 14 -1 2 21 8 10 23 5 9 -4 1 9 18 1 11 39 5 7 -4 17 29 9 12 0 5 0 7 11 7 7 12 5 9 2 8 8 18 0 7 11 5 12 14 11 11 12 6 15 4 11 9 1 12 1 6 10 19 6 6 3 50 4 2 7 8 21 8 10 16 8 7 3 7 12 4 8 7 9 6 0 22 4 11 9 12 3 8 4 17 11 1 4 6 27 38 7 16 7 0 40 -3 6 4 53 6 12 9 11 7 10 18 16 5 7 5 44 2 -9 13 -1 8 15 5 9 22 16 14 11 3 7 -2 3 6 8 6 14 13 6 7 11 3 4 10 3 39 7 24 4 22 35 -1 12 9 14 0 7 1 21 8 10 14 13 24 5 9 12 6 10 7 14 13 9 11 11 4 15 16 19 20 8 -5 7 0 9 16 13 11 3 12 14 15 14 16 9 15 21 10 10 4 2 2 18 33 7 16 3 9 21 13 10 42 -6 4 17 1 6 8 37 2 15 20 8 17 14 6 16 16 6 9 15 8 6 12 16 13 4 4 8 2 6 17 3 4 2 8 12 19 33 13 21 10 8 21 13 14 8 38 19 8 18 12 9 7 4 16 0 13 13 11 10 12 3 7 5 16 4 9 10 13 -4 6 18 4 27 51 19 7 8 17 20 8 4 5 21 1 54 8 5 11 3 28 17 8 18 1 23 38 5 9 18 28 6 35 6 2 26 5 13 13 16 14 13 13 11 7 13 17 8 3 16 2 9 4 14 7 8 3 10 10 11 6 10 3 10 1 11 12 11 11 7 6 2 15 -2 6 18 7 1 27 15 7 16 15 1 6 8 15 -4 2 14 16 2 5 8 9 12 5 50 19 3 11 1 12 41 2 5 4 22 4 6 11 6 5 7 16 4 3 3 9 5 30 6 12 7 -7 14 3 14 2 9 1 -1 6 9 12 9 4 3 5 5 0 11 21 4 28 8 11 8 -1 7 2 4 5 5 1 20 7 18 19 6 14 9 0 10 17 17 1 18 18 5 4 10 8 3 15 -3 7 -5 4 18 20 -1 5 12 16 6 11 17 8 3 9 8 2 10 11 11</t>
+  </si>
+  <si>
+    <t>2 3 0 3 1 3 6 -1 1 8 1 5 11 3 14 5 0 21 -2 1 5 0 30 2 4 1 7 1 3 2 5 -1 4 7 1 1 3 8 10 1 3 3 1 2 0 4 4 3 2 2 5 6 11 10 -1 12 23 0 1 0 3 1 9 0 3 4 4 -3 -1 5 4 4 0 -1 -3 11 10 5 2 0 19 19 1 -1 2 3 1 23 3 6 3 -2 2 2 2 4 3 3 2 4 2 9 -1 13 3 4 0 3 5 1 -2 2 3 2 -2 2 9 9 5 5 3 8 3 8 1 0 1 9 7 1 13 9 12 0 0 7 4 7 -1 3 -2 2 4 1 14 5 0 0 0 6 0 0 3 8 -1 2 4 11 6 2 6 1 4 2 3 1 12 5 8 1 0 1 1 2 3 7 5 3 10 3 2 0 2 1 2 0 4 6 12 4 2 4 5 5 2 13 1 2 2 7 2 3 7 7 0 3 3 2 -2 2 7 0 2 2 5 1 10 -1 6 11 1 5 9 11 2 7 2 4 5 -1 5 3 14 56 4 0 14 5 13 -1 4 1 -2 0 0 1 2 -4 4 2 15 2 1 8 4 -2 1 11 11 0 7 12 4 7 2 0 7 3 1 19 11 3 0 1 1 1 5 2 3 3 0 -4 6 3 10 2 1 5 2 -1 15 -1 1 -4 11 12 2 4 3 5 36 3 4 1 4 4 5 3 7 7 10 1 1 -3 -3 0 1 6 4 4 3 1 5 -2 1 2 -1 4 14 4 4 4 -1 6 5 3 15 4 1 2 -2 0 1 1 21 -1 3 1 4 3 5 6 2 7 8 5 1 18 3 6 2 6 17 2 9 5 7 3 2 7 7 20 32 0 7 1 25 5 6 3 6 0 3 0 7 0 0 3 13 -2 2 2 3 0 6 0 2 7 3 2 2 5 1 6 5 13 -2 2 3 4 4 4 9 -1 2 5 2 9 2 2 -2 8 7 3 0 5 4 6 6 2 2 12 3 8 0 2 4 70 3 -1 2 1 6 2 5 0 5 1 10 2 2 2 2 7 14 3 1 3 1 11 3 4 1 0 5 2 11 1 3 11 5 10 3 3 3 2 0 2 1 3 -1 6 10 6 3 3 3 2 5 4 2 3 8 1 3 2 5 8 1 8 5 3 4 6 9 2 9 4 4 4 8 7 1 0 3 2 8 1 5 2 15 4 4 6 6 17 4 5 3 6 6 3 5 12 0 0 14 0 4 3 7 -2 5 3 14 0 10 2 2 7 4 13 2 2 2 3 2 1 0 22 9 15 0 4 3 4 2 2 8 0 8 6 10 5 3 1 3 0 1 9 6 5 2 4 5 0 3 3 0 3 6 13 7 -3 2 -2 2 2 4 7 -4 0 1 3 2 5 2 10 -3 4 2 4 4 9 7 5 9 3 8 12 -1 3 4 6 0 -1 1 8 6 -1 11 6 13 3 0 13 3 7 2 1 14 4 1 0 3 4 21 2 3 7 10 7 6 3 2 5 10 3 3 4 6 2 7 -1 3 4 9 2 2 1 3 -3 2 -1 -1 1 7 4 5 3 2 11 5 7 2 14 18 6 1 27 3 5 12 5 4 13 5 13 12 1 1 6 3 4 3 4 0 2 2 4 11 2 0 6 1 6 2 3 0 2 3 4 1 3 4 4 2 3 2 2</t>
+  </si>
+  <si>
+    <t>11 28 6 2 18 3 10 2 21 17 14 13 9 10 18 1 11 5 11 11 8 17 15 2 28 18 9 -1 14 16 12 2 12 15 4 8 5 9 20 14 11 12 9 1 14 7 14 17 20 14 26 8 14 19 6 5 11 19 19 18 9 20 16 9 16 8 8 8 10 5 7 11 5 4 -2 0 15 -1 4 7 -1 1 2 7 8 7 7 55 6 18 10 14 3 13 4 10 8 5 26 6 21 11 22 11 8 8 9 -7 10 15 19 38 9 4 3 29 10 8 11 20 8 12 2 0 8 7 5 11 6 4 5 10 11 5 18 5 3 13 6 8 22 10 8 9 18 15 13 12 8 16 14 6 10 1 15 16 7 3 6 11 40 59 3 11 30 18 9 19 3 10 3 7 14 3 9 2 8 9 15 12 8 1 9 8 4 16 3 20 25 8 18 21 7 11 11 12 6 0 7 6 14 32 45 8 6 33 7 15 3 6 8 8 68 8 5 8 7 10 11 4 8 8 5 22 19 15 6 1 6 5 16 8 16 5 9 13 7 6 12 9 16 11 1 5 1 10 2 4 13 7 14 4 5 18 16 1 5 6 24 6 6 6 4 12 18 6 21 -6 5 14 1 5 3 10 11 9 5 21 12 28 6 15 10 5 5 15 17 1 8 20 1 7 2 12 24 9 9 7 4 8 10 13 -3 7 41 11 11 3 5 8 17 4 6 17 10 22 9 2 7 18 15 22 5 2 12 18 20 8 22 6 17 8 19 -5 13 13 9 6 11 6 11 20 0 7 25 6 10 4 8 27 7 4 9 3 13 16 9 6 14 9 6 11 7 21 7 10 -3 5 20 7 10 8 3 16 3 10 5 3 5 7 15 13 7 6 1 9 5 25 -4 5 11 6 2 6 17 16 2 10 6 8 20 7 22 13 3 7 5 22 12 4 4 16 11 8 12 0 24 12 7 6 10 7 4 4 8 18 9 0 3 10 7 56 19 2 7 9 5 7 6 3 8 19 3 4 9 20 4 6 12 14 3 4 1 12 3 -1 10 26 4 6 14 4 1 1 28 25 -3 11 9 6 18 2 11 6 5 6 19 15 58 9 21 15 3 16 8 6 8 6 2 49 6 8 -2 11 21 7 15 24 11 30 15 4 8 14 18 22 35 7 30 16 6 28 10 15 9 4 4 -6 9 -4 16 25 4 4 5 18 5 6 13 4 2 9 1 3 5 5 12 21 5 12 6 13 7 5 1 7 7 19 10 3 9 12 7 0 15 5 6 6 7 11 9 17 9 3 11 12 9 18 8 4 9 10 10 15 14 24 2 6 6 20 6 2 8 3 7 8 10 20 7 2 15 9 5 9 20 24 22 11 2 3 12 3 19 9 17 8 3 10 8 15 3 13 7 10 8 6 6 6 7 4 35 7 12 16 3 13 9 17 14 14 18 4 5 8 3 21 5 3 14 0 19 2 0 13 4 21 6 10 8 7 14 11 9 5 11 1 4 12 8 6 -2 6 8 4 8 5 9 2 9 17 4 6 5 3 17 25 11 13 3 2 16 17</t>
   </si>
   <si>
     <t>1N11+</t>
@@ -161,22 +161,22 @@
     <t>RM</t>
   </si>
   <si>
-    <t>64 70 66 71 51 58 70 57 61 55 60 56 56 51 65 68 47 65 59 60 66 64 62 59 68 48 50 46 49 60 50 63 65 64 51 60 63 47 63 55 65 65 63 62 65 64 68 56 53 68 67 58 65 47 54 62 56 52 61 65 64 62 56 64 51 52 63 61</t>
-  </si>
-  <si>
-    <t>33 23 30 30 10 14 41 13 15 22 23 4 21 16 22 28 13 25 26 21 24 20 31 22 3 13 23 13 12 25 22 23 18 22 11 16 16 23 21 18 22 22 21 27 16 23 24 10 16 16 24 18 19 7 16 13 10 14 26 32 22 20 18 13 15 13 15 26</t>
+    <t>64 70 66 71 51 58 70 57 61 55 60 56 56 51 65 68 47 65 59 60 66 64 62 59 68 48 50 46 49 60 50 63 65 64 51 60 63 47 63 55 65 65 63 62 65 64 68 56 53 68 67 58 65 47 54 62 56 52 61 65 64 62 56 64 51 52 63 61 57 64</t>
+  </si>
+  <si>
+    <t>33 23 30 30 10 14 41 13 15 22 23 4 21 16 22 28 13 25 26 21 24 20 31 22 3 13 23 13 12 25 22 23 18 22 11 16 16 23 21 18 22 22 21 27 16 23 24 10 16 16 24 18 19 7 16 13 10 14 26 32 22 20 18 13 15 13 15 26 15 17</t>
   </si>
   <si>
     <t>0 22 34 18 0 18 16 27 14 14 25 24 12 28 23 15 44 23 31 26 17 18 17 8 23 19 15 25 25 20 48 19 24 23 19 18 22 18 23 28 38 20 15 33 21 30 22 23 37 22 11 23 12 19 18 18 22</t>
   </si>
   <si>
-    <t>41 32 32 53 62 53 59 54 50 49 44 34 39 55 49 24 46 43 40 56 48 37 41 38 33 35 38 49 23 45 41 71 38 56 48 52 37 50 33 61 46 49 41 40 43 42 54 54 48 51 52 34 55 42 34 35 54 45 42 51 41 38 48 48 43 58 61 28 42 53 55 49 41 34 50 43 51 33 30 40 50 57 57 33 63 36 44 48 50 51 45 51 51 34 34 42 58 46 52 39 51 51 46 33 36 42 39</t>
-  </si>
-  <si>
-    <t>0 1 0 12 0 0 0 0 7 0 9 0 0 3 0 0 2 0 0 11 0 0 2 0 0 0 0 0 0 0 12 0 0 0 0 15 0 0 0 29 5 13 0 0 0 0 24 6 8 0 17 0 8 18 0 6 17 19 0 0 0 0 0 -2 0 13 11 0 0 0 15 9 0 0 0 9 0 0 0 17 0 8 28 0 11 0 10 0 0 4 0 0 0 0 0 0 0 5 0 0 9 0 4 0 2 3 9</t>
-  </si>
-  <si>
-    <t>8 20 11 0 11 0 0 15 0 9 0 6 0 0 0 14 5 0 0 0 0 11 0 6 0 1 0 10 16 20 0 8 0 0 0 0 0 0 0 0 0 0 0 0 0 12 0 0 6 0 0 20 0 19 0 0 2 11 8 0 0 0 0 0 0 19 17 0 26 0 7 0 0 0 0 0 0 2 12 6 0 4 0 0 0 12 14 0 0 0 9 0 0</t>
+    <t>41 32 32 53 62 53 59 54 50 49 44 34 39 55 49 24 46 43 40 56 48 37 41 38 33 35 38 49 23 45 41 71 38 56 48 52 37 50 33 61 46 49 41 40 43 42 54 54 48 51 52 34 55 42 34 35 54 45 42 51 41 38 48 48 43 58 61 28 42 53 55 49 41 34 50 43 51 33 30 40 50 57 57 33 63 36 44 48 50 51 45 51 51 34 34 42 58 46 52 39 51 51 46 33 36 42 39 36 41 45 46 44 36</t>
+  </si>
+  <si>
+    <t>0 1 0 12 0 0 0 0 7 0 9 0 0 3 0 0 2 0 0 11 0 0 2 0 0 0 0 0 0 0 12 0 0 0 0 15 0 0 0 29 5 13 0 0 0 0 24 6 8 0 17 0 8 18 0 6 17 19 0 0 0 0 0 -2 0 13 11 0 0 0 15 9 0 0 0 9 0 0 0 17 0 8 28 0 11 0 10 0 0 4 0 0 0 0 0 0 0 5 0 0 9 0 4 0 2 3 9 0 0 7 0 0 0</t>
+  </si>
+  <si>
+    <t>8 20 11 0 11 0 0 15 0 9 0 6 0 0 0 14 5 0 0 0 0 11 0 6 0 1 0 10 16 20 0 8 0 0 0 0 0 0 0 0 0 0 0 0 0 12 0 0 6 0 0 20 0 19 0 0 2 11 8 0 0 0 0 0 0 19 17 0 26 0 7 0 0 0 0 0 0 2 12 6 0 4 0 0 0 12 14 0 0 0 9 0 0 0 15 11 0 -4 0</t>
   </si>
   <si>
     <t>INT</t>
@@ -668,7 +668,7 @@
         <v>3</v>
       </c>
       <c r="C2">
-        <v>306</v>
+        <v>315</v>
       </c>
       <c r="D2">
         <v>17</v>
@@ -677,16 +677,16 @@
         <v>15</v>
       </c>
       <c r="F2">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="G2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H2">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I2">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="J2">
         <v>31</v>
@@ -701,13 +701,13 @@
         <v>283</v>
       </c>
       <c r="N2">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="O2">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="P2">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="Q2">
         <v>810</v>
@@ -721,37 +721,37 @@
         <v>15</v>
       </c>
       <c r="C3">
-        <v>298</v>
+        <v>314</v>
       </c>
       <c r="D3">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E3">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="F3">
-        <v>172</v>
+        <v>182</v>
       </c>
       <c r="G3">
         <v>45</v>
       </c>
       <c r="H3">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="I3">
-        <v>103</v>
+        <v>113</v>
       </c>
       <c r="J3">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="K3" t="s">
         <v>26</v>
       </c>
       <c r="L3">
-        <v>455</v>
+        <v>497</v>
       </c>
       <c r="M3">
-        <v>286</v>
+        <v>309</v>
       </c>
       <c r="N3">
         <v>37</v>
@@ -763,7 +763,7 @@
         <v>17</v>
       </c>
       <c r="Q3">
-        <v>795</v>
+        <v>858</v>
       </c>
     </row>
   </sheetData>
@@ -943,19 +943,19 @@
         <v>7</v>
       </c>
       <c r="C2">
-        <v>340</v>
+        <v>353</v>
       </c>
       <c r="D2">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F2">
-        <v>109</v>
+        <v>116</v>
       </c>
       <c r="G2">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="H2">
         <v>12</v>
@@ -964,7 +964,7 @@
         <v>11</v>
       </c>
       <c r="J2">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K2" t="s">
         <v>25</v>
@@ -976,7 +976,7 @@
         <v>344</v>
       </c>
       <c r="N2">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="O2">
         <v>37</v>
@@ -996,37 +996,37 @@
         <v>22</v>
       </c>
       <c r="C3">
-        <v>303</v>
+        <v>318</v>
       </c>
       <c r="D3">
         <v>6</v>
       </c>
       <c r="E3">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F3">
-        <v>195</v>
+        <v>203</v>
       </c>
       <c r="G3">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="H3">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="I3">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="J3">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="K3" t="s">
         <v>26</v>
       </c>
       <c r="L3">
-        <v>472</v>
+        <v>513</v>
       </c>
       <c r="M3">
-        <v>319</v>
+        <v>349</v>
       </c>
       <c r="N3">
         <v>35</v>
@@ -1038,7 +1038,7 @@
         <v>17</v>
       </c>
       <c r="Q3">
-        <v>839</v>
+        <v>909</v>
       </c>
     </row>
   </sheetData>
@@ -1215,13 +1215,13 @@
         <v>41</v>
       </c>
       <c r="B2">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="C2" t="s">
         <v>41</v>
       </c>
       <c r="D2">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="E2" t="s">
         <v>17</v>
@@ -1239,10 +1239,10 @@
         <v>5</v>
       </c>
       <c r="J2">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="K2">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="L2">
         <v>109</v>
@@ -1251,10 +1251,10 @@
         <v>91</v>
       </c>
       <c r="N2">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="O2">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="P2">
         <v>0</v>
@@ -1268,7 +1268,7 @@
         <v>42</v>
       </c>
       <c r="B3">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C3" t="s">
         <v>43</v>
@@ -1362,7 +1362,7 @@
         <v>26</v>
       </c>
       <c r="B3">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C3">
         <v>14</v>
@@ -1371,7 +1371,7 @@
         <v>14</v>
       </c>
       <c r="E3">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>
@@ -1409,7 +1409,7 @@
         <v>60</v>
       </c>
       <c r="D2">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:4">

--- a/Base/Teams/Giants/Team Data.xlsx
+++ b/Base/Teams/Giants/Team Data.xlsx
@@ -35,16 +35,16 @@
     <t>P</t>
   </si>
   <si>
-    <t>-1 7 -5 1 -4 1 -2 -2 -2 5 -4 4 1 4 6 2 7 -1 13 -1 5 18 0 6 3 6 3 2 7 1 -1 3 2 12 6 0 4 0 6 19 3 2 1 23 -3 7 3 16 1 0 3 8 -1 3 4 4 4 2 4 4 10 3 3 1 3 6 5 10 26 4 3 3 0 13 11 9 2 9 3 2 3 8 2 4 0 1 3 2 5 1 2 4 1 7 -6 6 13 1 6 -2 4 14 -3 -3 5 4 49 0 -1 9 5 8 9 -1 1 8 3 4 0 3 7 2 7 1 4 7 7 10 3 2 3 2 -1 80 1 -2 2 4 0 19 -4 1 14 10 3 0 2 -2 2 2 1 9 1 6 11 3 17 6 4 2 2 1 2 6 5 4 -1 15 7 18 5 6 4 2 4 2 5 2 19 11 5 5 8 1 0 12 3 5 5 3 20 1 -2 2 2 6 -2 4 6 17 2 34 2 6 2 4 10 5 4 0 0 1 6 3 3 4 0 8 1 1 10 1 9 6 1 0 4 -3 6 2 -4 5 4 2 1 0 4 5 3 13 2 1 4 -1 2 4 5 18 4 7 2 4 2 5 2 2 -1 4 7 5 -2 3 -1 3 3 4 2 8 2 5 4 1 -1 6 4 5 3 3 0 5 9 2 3 60 13 4 3 13 23 3 4 0 3 1 5 3 6 -1 8 4 1 3 5 3 0 6 0 13 3 16 3 1 9 -1 4 9 2 2 5 -3 7 8 2 0 2 12 4 4 4 3 1 -3 1 14 3 5 6 1 1 9 3 3 3 15 3 8 10 7 23 3 0 1 1 2 11 4 0 3 5 2 2 7 0 5 11 -1 1 4 5 8 5 -2 4 2 -1 1 5 2 3 7 3 5 2 4 2 6 1 4 5 2 15 -2 2 6 41 6 2 7 5 3 0 9 -1 -6 2 -9 7 2 2 5 11 1 1 2 8 7 2 5 12 -3 15 2 -1 3 4 0 4 6 -3 2 4 2 6 11 4 4 1 1 6 -1 0 4 0 1 7 8 1 17 20 1 1 -3 2 4 1 4 2 1 6 6 4 6 5 1 4 3 4 1 14 2 4 1 0 0 -1 4 0 2 4 -2 7 3 4 4 14 9 2 3 0 2 2 0 6 -1 2 4 2 2 5 4 14 -1 7 2 2 0 1 9 3 0 -2 -2 7 11 3 4 2 3 6 2 2 -2 4 19 0 4 9 2 0 2 -3 11 2 2 6 2 14 5 4 0 3 5 4 10 2 2 6 4 16 5 5 6 2 -2 2 6 1 6 20 5 2 3 5 2 0 5 7 5 2 3 8 -3 4 11 12 2 2 8 6 0 1 3 16 1 2 12 0 9 6 5 0 2 14 2 2 1 1 32 6 -1 -3 7 -4 3 4 13 -1 1 4 3 5 0 1 -1 3 3 10 -2 0 1 0 7 0 23 17 1 0 9 13 3</t>
-  </si>
-  <si>
-    <t>13 14 7 1 11 12 41 14 18 5 13 10 4 4 5 5 4 15 10 6 7 7 5 7 5 17 15 24 12 13 -3 7 7 11 20 12 6 4 2 12 10 11 8 22 4 9 4 2 18 9 13 23 0 11 2 9 8 5 5 10 29 4 22 -7 8 17 -2 10 12 4 6 11 -1 8 12 8 9 7 -1 9 15 13 4 33 5 12 17 18 7 9 3 11 21 16 12 16 -3 7 10 39 3 9 14 -1 2 21 8 10 23 5 9 -4 1 9 18 1 11 39 5 7 -4 17 29 9 12 0 5 0 7 11 7 7 12 5 9 2 8 8 18 0 7 11 5 12 14 11 11 12 6 15 4 11 9 1 12 1 6 10 19 6 6 3 50 4 2 7 8 21 8 10 16 8 7 3 7 12 4 8 7 9 6 0 22 4 11 9 12 3 8 4 17 11 1 4 6 27 38 7 16 7 0 40 -3 6 4 53 6 12 9 11 7 10 18 16 5 7 5 44 2 -9 13 -1 8 15 5 9 22 16 14 11 3 7 -2 3 6 8 6 14 13 6 7 11 3 4 10 3 39 7 24 4 22 35 -1 12 9 14 0 7 1 21 8 10 14 13 24 5 9 12 6 10 7 14 13 9 11 11 4 15 16 19 20 8 -5 7 0 9 16 13 11 3 12 14 15 14 16 9 15 21 10 10 4 2 2 18 33 7 16 3 9 21 13 10 42 -6 4 17 1 6 8 37 2 15 20 8 17 14 6 16 16 6 9 15 8 6 12 16 13 4 4 8 2 6 17 3 4 2 8 12 19 33 13 21 10 8 21 13 14 8 38 19 8 18 12 9 7 4 16 0 13 13 11 10 12 3 7 5 16 4 9 10 13 -4 6 18 4 27 51 19 7 8 17 20 8 4 5 21 1 54 8 5 11 3 28 17 8 18 1 23 38 5 9 18 28 6 35 6 2 26 5 13 13 16 14 13 13 11 7 13 17 8 3 16 2 9 4 14 7 8 3 10 10 11 6 10 3 10 1 11 12 11 11 7 6 2 15 -2 6 18 7 1 27 15 7 16 15 1 6 8 15 -4 2 14 16 2 5 8 9 12 5 50 19 3 11 1 12 41 2 5 4 22 4 6 11 6 5 7 16 4 3 3 9 5 30 6 12 7 -7 14 3 14 2 9 1 -1 6 9 12 9 4 3 5 5 0 11 21 4 28 8 11 8 -1 7 2 4 5 5 1 20 7 18 19 6 14 9 0 10 17 17 1 18 18 5 4 10 8 3 15 -3 7 -5 4 18 20 -1 5 12 16 6 11 17 8 3 9 8 2 10 11 11</t>
-  </si>
-  <si>
-    <t>2 3 0 3 1 3 6 -1 1 8 1 5 11 3 14 5 0 21 -2 1 5 0 30 2 4 1 7 1 3 2 5 -1 4 7 1 1 3 8 10 1 3 3 1 2 0 4 4 3 2 2 5 6 11 10 -1 12 23 0 1 0 3 1 9 0 3 4 4 -3 -1 5 4 4 0 -1 -3 11 10 5 2 0 19 19 1 -1 2 3 1 23 3 6 3 -2 2 2 2 4 3 3 2 4 2 9 -1 13 3 4 0 3 5 1 -2 2 3 2 -2 2 9 9 5 5 3 8 3 8 1 0 1 9 7 1 13 9 12 0 0 7 4 7 -1 3 -2 2 4 1 14 5 0 0 0 6 0 0 3 8 -1 2 4 11 6 2 6 1 4 2 3 1 12 5 8 1 0 1 1 2 3 7 5 3 10 3 2 0 2 1 2 0 4 6 12 4 2 4 5 5 2 13 1 2 2 7 2 3 7 7 0 3 3 2 -2 2 7 0 2 2 5 1 10 -1 6 11 1 5 9 11 2 7 2 4 5 -1 5 3 14 56 4 0 14 5 13 -1 4 1 -2 0 0 1 2 -4 4 2 15 2 1 8 4 -2 1 11 11 0 7 12 4 7 2 0 7 3 1 19 11 3 0 1 1 1 5 2 3 3 0 -4 6 3 10 2 1 5 2 -1 15 -1 1 -4 11 12 2 4 3 5 36 3 4 1 4 4 5 3 7 7 10 1 1 -3 -3 0 1 6 4 4 3 1 5 -2 1 2 -1 4 14 4 4 4 -1 6 5 3 15 4 1 2 -2 0 1 1 21 -1 3 1 4 3 5 6 2 7 8 5 1 18 3 6 2 6 17 2 9 5 7 3 2 7 7 20 32 0 7 1 25 5 6 3 6 0 3 0 7 0 0 3 13 -2 2 2 3 0 6 0 2 7 3 2 2 5 1 6 5 13 -2 2 3 4 4 4 9 -1 2 5 2 9 2 2 -2 8 7 3 0 5 4 6 6 2 2 12 3 8 0 2 4 70 3 -1 2 1 6 2 5 0 5 1 10 2 2 2 2 7 14 3 1 3 1 11 3 4 1 0 5 2 11 1 3 11 5 10 3 3 3 2 0 2 1 3 -1 6 10 6 3 3 3 2 5 4 2 3 8 1 3 2 5 8 1 8 5 3 4 6 9 2 9 4 4 4 8 7 1 0 3 2 8 1 5 2 15 4 4 6 6 17 4 5 3 6 6 3 5 12 0 0 14 0 4 3 7 -2 5 3 14 0 10 2 2 7 4 13 2 2 2 3 2 1 0 22 9 15 0 4 3 4 2 2 8 0 8 6 10 5 3 1 3 0 1 9 6 5 2 4 5 0 3 3 0 3 6 13 7 -3 2 -2 2 2 4 7 -4 0 1 3 2 5 2 10 -3 4 2 4 4 9 7 5 9 3 8 12 -1 3 4 6 0 -1 1 8 6 -1 11 6 13 3 0 13 3 7 2 1 14 4 1 0 3 4 21 2 3 7 10 7 6 3 2 5 10 3 3 4 6 2 7 -1 3 4 9 2 2 1 3 -3 2 -1 -1 1 7 4 5 3 2 11 5 7 2 14 18 6 1 27 3 5 12 5 4 13 5 13 12 1 1 6 3 4 3 4 0 2 2 4 11 2 0 6 1 6 2 3 0 2 3 4 1 3 4 4 2 3 2 2</t>
-  </si>
-  <si>
-    <t>11 28 6 2 18 3 10 2 21 17 14 13 9 10 18 1 11 5 11 11 8 17 15 2 28 18 9 -1 14 16 12 2 12 15 4 8 5 9 20 14 11 12 9 1 14 7 14 17 20 14 26 8 14 19 6 5 11 19 19 18 9 20 16 9 16 8 8 8 10 5 7 11 5 4 -2 0 15 -1 4 7 -1 1 2 7 8 7 7 55 6 18 10 14 3 13 4 10 8 5 26 6 21 11 22 11 8 8 9 -7 10 15 19 38 9 4 3 29 10 8 11 20 8 12 2 0 8 7 5 11 6 4 5 10 11 5 18 5 3 13 6 8 22 10 8 9 18 15 13 12 8 16 14 6 10 1 15 16 7 3 6 11 40 59 3 11 30 18 9 19 3 10 3 7 14 3 9 2 8 9 15 12 8 1 9 8 4 16 3 20 25 8 18 21 7 11 11 12 6 0 7 6 14 32 45 8 6 33 7 15 3 6 8 8 68 8 5 8 7 10 11 4 8 8 5 22 19 15 6 1 6 5 16 8 16 5 9 13 7 6 12 9 16 11 1 5 1 10 2 4 13 7 14 4 5 18 16 1 5 6 24 6 6 6 4 12 18 6 21 -6 5 14 1 5 3 10 11 9 5 21 12 28 6 15 10 5 5 15 17 1 8 20 1 7 2 12 24 9 9 7 4 8 10 13 -3 7 41 11 11 3 5 8 17 4 6 17 10 22 9 2 7 18 15 22 5 2 12 18 20 8 22 6 17 8 19 -5 13 13 9 6 11 6 11 20 0 7 25 6 10 4 8 27 7 4 9 3 13 16 9 6 14 9 6 11 7 21 7 10 -3 5 20 7 10 8 3 16 3 10 5 3 5 7 15 13 7 6 1 9 5 25 -4 5 11 6 2 6 17 16 2 10 6 8 20 7 22 13 3 7 5 22 12 4 4 16 11 8 12 0 24 12 7 6 10 7 4 4 8 18 9 0 3 10 7 56 19 2 7 9 5 7 6 3 8 19 3 4 9 20 4 6 12 14 3 4 1 12 3 -1 10 26 4 6 14 4 1 1 28 25 -3 11 9 6 18 2 11 6 5 6 19 15 58 9 21 15 3 16 8 6 8 6 2 49 6 8 -2 11 21 7 15 24 11 30 15 4 8 14 18 22 35 7 30 16 6 28 10 15 9 4 4 -6 9 -4 16 25 4 4 5 18 5 6 13 4 2 9 1 3 5 5 12 21 5 12 6 13 7 5 1 7 7 19 10 3 9 12 7 0 15 5 6 6 7 11 9 17 9 3 11 12 9 18 8 4 9 10 10 15 14 24 2 6 6 20 6 2 8 3 7 8 10 20 7 2 15 9 5 9 20 24 22 11 2 3 12 3 19 9 17 8 3 10 8 15 3 13 7 10 8 6 6 6 7 4 35 7 12 16 3 13 9 17 14 14 18 4 5 8 3 21 5 3 14 0 19 2 0 13 4 21 6 10 8 7 14 11 9 5 11 1 4 12 8 6 -2 6 8 4 8 5 9 2 9 17 4 6 5 3 17 25 11 13 3 2 16 17</t>
+    <t>-1 7 -5 1 -4 1 -2 -2 -2 5 -4 4 1 4 6 2 7 -1 13 -1 5 18 0 6 3 6 3 2 7 1 -1 3 2 12 6 0 4 0 6 19 3 2 1 23 -3 7 3 16 1 0 3 8 -1 3 4 4 4 2 4 4 10 3 3 1 3 6 5 10 26 4 3 3 0 13 11 9 2 9 3 2 3 8 2 4 0 1 3 2 5 1 2 4 1 7 -6 6 13 1 6 -2 4 14 -3 -3 5 4 49 0 -1 9 5 8 9 -1 1 8 3 4 0 3 7 2 7 1 4 7 7 10 3 2 3 2 -1 80 1 -2 2 4 0 19 -4 1 14 10 3 0 2 -2 2 2 1 9 1 6 11 3 17 6 4 2 2 1 2 6 5 4 -1 15 7 18 5 6 4 2 4 2 5 2 19 11 5 5 8 1 0 12 3 5 5 3 20 1 -2 2 2 6 -2 4 6 17 2 34 2 6 2 4 10 5 4 0 0 1 6 3 3 4 0 8 1 1 10 1 9 6 1 0 4 -3 6 2 -4 5 4 2 1 0 4 5 3 13 2 1 4 -1 2 4 5 18 4 7 2 4 2 5 2 2 -1 4 7 5 -2 3 -1 3 3 4 2 8 2 5 4 1 -1 6 4 5 3 3 0 5 9 2 3 60 13 4 3 13 23 3 4 0 3 1 5 3 6 -1 8 4 1 3 5 3 0 6 0 13 3 16 3 1 9 -1 4 9 2 2 5 -3 7 8 2 0 2 12 4 4 4 3 1 -3 1 14 3 5 6 1 1 9 3 3 3 15 3 8 10 7 23 3 0 1 1 2 11 4 0 3 5 2 2 7 0 5 11 -1 1 4 5 8 5 -2 4 2 -1 1 5 2 3 7 3 5 2 4 2 6 1 4 5 2 15 -2 2 6 41 6 2 7 5 3 0 9 -1 -6 2 -9 7 2 2 5 11 1 1 2 8 7 2 5 12 -3 15 2 -1 3 4 0 4 6 -3 2 4 2 6 11 4 4 1 1 6 -1 0 4 0 1 7 8 1 17 20 1 1 -3 2 4 1 4 2 1 6 6 4 6 5 1 4 3 4 1 14 2 4 1 0 0 -1 4 0 2 4 -2 7 3 4 4 14 9 2 3 0 2 2 0 6 -1 2 4 2 2 5 4 14 -1 7 2 2 0 1 9 3 0 -2 -2 7 11 3 4 2 3 6 2 2 -2 4 19 0 4 9 2 0 2 -3 11 2 2 6 2 14 5 4 0 3 5 4 10 2 2 6 4 16 5 5 6 2 -2 2 6 1 6 20 5 2 3 5 2 0 5 7 5 2 3 8 -3 4 11 12 2 2 8 6 0 1 3 16 1 2 12 0 9 6 5 0 2 14 2 2 1 1 32 6 -1 -3 7 -4 3 4 13 -1 1 4 3 5 0 1 -1 3 3 10 -2 0 1 0 7 0 23 17 1 0 9 13 3 7 8 4 4 2 0 7 -1 2 7 5 1 7 5 7 4 9 5 -3 13 8 5 8 6 8 7</t>
+  </si>
+  <si>
+    <t>13 14 7 1 11 12 41 14 18 5 13 10 4 4 5 5 4 15 10 6 7 7 5 7 5 17 15 24 12 13 -3 7 7 11 20 12 6 4 2 12 10 11 8 22 4 9 4 2 18 9 13 23 0 11 2 9 8 5 5 10 29 4 22 -7 8 17 -2 10 12 4 6 11 -1 8 12 8 9 7 -1 9 15 13 4 33 5 12 17 18 7 9 3 11 21 16 12 16 -3 7 10 39 3 9 14 -1 2 21 8 10 23 5 9 -4 1 9 18 1 11 39 5 7 -4 17 29 9 12 0 5 0 7 11 7 7 12 5 9 2 8 8 18 0 7 11 5 12 14 11 11 12 6 15 4 11 9 1 12 1 6 10 19 6 6 3 50 4 2 7 8 21 8 10 16 8 7 3 7 12 4 8 7 9 6 0 22 4 11 9 12 3 8 4 17 11 1 4 6 27 38 7 16 7 0 40 -3 6 4 53 6 12 9 11 7 10 18 16 5 7 5 44 2 -9 13 -1 8 15 5 9 22 16 14 11 3 7 -2 3 6 8 6 14 13 6 7 11 3 4 10 3 39 7 24 4 22 35 -1 12 9 14 0 7 1 21 8 10 14 13 24 5 9 12 6 10 7 14 13 9 11 11 4 15 16 19 20 8 -5 7 0 9 16 13 11 3 12 14 15 14 16 9 15 21 10 10 4 2 2 18 33 7 16 3 9 21 13 10 42 -6 4 17 1 6 8 37 2 15 20 8 17 14 6 16 16 6 9 15 8 6 12 16 13 4 4 8 2 6 17 3 4 2 8 12 19 33 13 21 10 8 21 13 14 8 38 19 8 18 12 9 7 4 16 0 13 13 11 10 12 3 7 5 16 4 9 10 13 -4 6 18 4 27 51 19 7 8 17 20 8 4 5 21 1 54 8 5 11 3 28 17 8 18 1 23 38 5 9 18 28 6 35 6 2 26 5 13 13 16 14 13 13 11 7 13 17 8 3 16 2 9 4 14 7 8 3 10 10 11 6 10 3 10 1 11 12 11 11 7 6 2 15 -2 6 18 7 1 27 15 7 16 15 1 6 8 15 -4 2 14 16 2 5 8 9 12 5 50 19 3 11 1 12 41 2 5 4 22 4 6 11 6 5 7 16 4 3 3 9 5 30 6 12 7 -7 14 3 14 2 9 1 -1 6 9 12 9 4 3 5 5 0 11 21 4 28 8 11 8 -1 7 2 4 5 5 1 20 7 18 19 6 14 9 0 10 17 17 1 18 18 5 4 10 8 3 15 -3 7 -5 4 18 20 -1 5 12 16 6 11 17 8 3 9 8 2 10 11 11 5 15 6 60 3 7 -2 1 17 3 9 6 18 10 1 8 24</t>
+  </si>
+  <si>
+    <t>2 3 0 3 1 3 6 -1 1 8 1 5 11 3 14 5 0 21 -2 1 5 0 30 2 4 1 7 1 3 2 5 -1 4 7 1 1 3 8 10 1 3 3 1 2 0 4 4 3 2 2 5 6 11 10 -1 12 23 0 1 0 3 1 9 0 3 4 4 -3 -1 5 4 4 0 -1 -3 11 10 5 2 0 19 19 1 -1 2 3 1 23 3 6 3 -2 2 2 2 4 3 3 2 4 2 9 -1 13 3 4 0 3 5 1 -2 2 3 2 -2 2 9 9 5 5 3 8 3 8 1 0 1 9 7 1 13 9 12 0 0 7 4 7 -1 3 -2 2 4 1 14 5 0 0 0 6 0 0 3 8 -1 2 4 11 6 2 6 1 4 2 3 1 12 5 8 1 0 1 1 2 3 7 5 3 10 3 2 0 2 1 2 0 4 6 12 4 2 4 5 5 2 13 1 2 2 7 2 3 7 7 0 3 3 2 -2 2 7 0 2 2 5 1 10 -1 6 11 1 5 9 11 2 7 2 4 5 -1 5 3 14 56 4 0 14 5 13 -1 4 1 -2 0 0 1 2 -4 4 2 15 2 1 8 4 -2 1 11 11 0 7 12 4 7 2 0 7 3 1 19 11 3 0 1 1 1 5 2 3 3 0 -4 6 3 10 2 1 5 2 -1 15 -1 1 -4 11 12 2 4 3 5 36 3 4 1 4 4 5 3 7 7 10 1 1 -3 -3 0 1 6 4 4 3 1 5 -2 1 2 -1 4 14 4 4 4 -1 6 5 3 15 4 1 2 -2 0 1 1 21 -1 3 1 4 3 5 6 2 7 8 5 1 18 3 6 2 6 17 2 9 5 7 3 2 7 7 20 32 0 7 1 25 5 6 3 6 0 3 0 7 0 0 3 13 -2 2 2 3 0 6 0 2 7 3 2 2 5 1 6 5 13 -2 2 3 4 4 4 9 -1 2 5 2 9 2 2 -2 8 7 3 0 5 4 6 6 2 2 12 3 8 0 2 4 70 3 -1 2 1 6 2 5 0 5 1 10 2 2 2 2 7 14 3 1 3 1 11 3 4 1 0 5 2 11 1 3 11 5 10 3 3 3 2 0 2 1 3 -1 6 10 6 3 3 3 2 5 4 2 3 8 1 3 2 5 8 1 8 5 3 4 6 9 2 9 4 4 4 8 7 1 0 3 2 8 1 5 2 15 4 4 6 6 17 4 5 3 6 6 3 5 12 0 0 14 0 4 3 7 -2 5 3 14 0 10 2 2 7 4 13 2 2 2 3 2 1 0 22 9 15 0 4 3 4 2 2 8 0 8 6 10 5 3 1 3 0 1 9 6 5 2 4 5 0 3 3 0 3 6 13 7 -3 2 -2 2 2 4 7 -4 0 1 3 2 5 2 10 -3 4 2 4 4 9 7 5 9 3 8 12 -1 3 4 6 0 -1 1 8 6 -1 11 6 13 3 0 13 3 7 2 1 14 4 1 0 3 4 21 2 3 7 10 7 6 3 2 5 10 3 3 4 6 2 7 -1 3 4 9 2 2 1 3 -3 2 -1 -1 1 7 4 5 3 2 11 5 7 2 14 18 6 1 27 3 5 12 5 4 13 5 13 12 1 1 6 3 4 3 4 0 2 2 4 11 2 0 6 1 6 2 3 0 2 3 4 1 3 4 4 2 3 2 2 0 14 9 5 5 9 1 1 0 2 17 2 3 3 12 4 -1 6 4 8 2 4 2 6 1 3 2 10 9 0 3 2 0 2 4</t>
+  </si>
+  <si>
+    <t>11 28 6 2 18 3 10 2 21 17 14 13 9 10 18 1 11 5 11 11 8 17 15 2 28 18 9 -1 14 16 12 2 12 15 4 8 5 9 20 14 11 12 9 1 14 7 14 17 20 14 26 8 14 19 6 5 11 19 19 18 9 20 16 9 16 8 8 8 10 5 7 11 5 4 -2 0 15 -1 4 7 -1 1 2 7 8 7 7 55 6 18 10 14 3 13 4 10 8 5 26 6 21 11 22 11 8 8 9 -7 10 15 19 38 9 4 3 29 10 8 11 20 8 12 2 0 8 7 5 11 6 4 5 10 11 5 18 5 3 13 6 8 22 10 8 9 18 15 13 12 8 16 14 6 10 1 15 16 7 3 6 11 40 59 3 11 30 18 9 19 3 10 3 7 14 3 9 2 8 9 15 12 8 1 9 8 4 16 3 20 25 8 18 21 7 11 11 12 6 0 7 6 14 32 45 8 6 33 7 15 3 6 8 8 68 8 5 8 7 10 11 4 8 8 5 22 19 15 6 1 6 5 16 8 16 5 9 13 7 6 12 9 16 11 1 5 1 10 2 4 13 7 14 4 5 18 16 1 5 6 24 6 6 6 4 12 18 6 21 -6 5 14 1 5 3 10 11 9 5 21 12 28 6 15 10 5 5 15 17 1 8 20 1 7 2 12 24 9 9 7 4 8 10 13 -3 7 41 11 11 3 5 8 17 4 6 17 10 22 9 2 7 18 15 22 5 2 12 18 20 8 22 6 17 8 19 -5 13 13 9 6 11 6 11 20 0 7 25 6 10 4 8 27 7 4 9 3 13 16 9 6 14 9 6 11 7 21 7 10 -3 5 20 7 10 8 3 16 3 10 5 3 5 7 15 13 7 6 1 9 5 25 -4 5 11 6 2 6 17 16 2 10 6 8 20 7 22 13 3 7 5 22 12 4 4 16 11 8 12 0 24 12 7 6 10 7 4 4 8 18 9 0 3 10 7 56 19 2 7 9 5 7 6 3 8 19 3 4 9 20 4 6 12 14 3 4 1 12 3 -1 10 26 4 6 14 4 1 1 28 25 -3 11 9 6 18 2 11 6 5 6 19 15 58 9 21 15 3 16 8 6 8 6 2 49 6 8 -2 11 21 7 15 24 11 30 15 4 8 14 18 22 35 7 30 16 6 28 10 15 9 4 4 -6 9 -4 16 25 4 4 5 18 5 6 13 4 2 9 1 3 5 5 12 21 5 12 6 13 7 5 1 7 7 19 10 3 9 12 7 0 15 5 6 6 7 11 9 17 9 3 11 12 9 18 8 4 9 10 10 15 14 24 2 6 6 20 6 2 8 3 7 8 10 20 7 2 15 9 5 9 20 24 22 11 2 3 12 3 19 9 17 8 3 10 8 15 3 13 7 10 8 6 6 6 7 4 35 7 12 16 3 13 9 17 14 14 18 4 5 8 3 21 5 3 14 0 19 2 0 13 4 21 6 10 8 7 14 11 9 5 11 1 4 12 8 6 -2 6 8 4 8 5 9 2 9 17 4 6 5 3 17 25 11 13 3 2 16 17 15 7 5 11 9 -2 15 12 10 25 7 2 7 5 17 59 7 36 5 11 8 3 1</t>
   </si>
   <si>
     <t>1N11+</t>
@@ -161,22 +161,22 @@
     <t>RM</t>
   </si>
   <si>
-    <t>64 70 66 71 51 58 70 57 61 55 60 56 56 51 65 68 47 65 59 60 66 64 62 59 68 48 50 46 49 60 50 63 65 64 51 60 63 47 63 55 65 65 63 62 65 64 68 56 53 68 67 58 65 47 54 62 56 52 61 65 64 62 56 64 51 52 63 61 57 64</t>
-  </si>
-  <si>
-    <t>33 23 30 30 10 14 41 13 15 22 23 4 21 16 22 28 13 25 26 21 24 20 31 22 3 13 23 13 12 25 22 23 18 22 11 16 16 23 21 18 22 22 21 27 16 23 24 10 16 16 24 18 19 7 16 13 10 14 26 32 22 20 18 13 15 13 15 26 15 17</t>
-  </si>
-  <si>
-    <t>0 22 34 18 0 18 16 27 14 14 25 24 12 28 23 15 44 23 31 26 17 18 17 8 23 19 15 25 25 20 48 19 24 23 19 18 22 18 23 28 38 20 15 33 21 30 22 23 37 22 11 23 12 19 18 18 22</t>
-  </si>
-  <si>
-    <t>41 32 32 53 62 53 59 54 50 49 44 34 39 55 49 24 46 43 40 56 48 37 41 38 33 35 38 49 23 45 41 71 38 56 48 52 37 50 33 61 46 49 41 40 43 42 54 54 48 51 52 34 55 42 34 35 54 45 42 51 41 38 48 48 43 58 61 28 42 53 55 49 41 34 50 43 51 33 30 40 50 57 57 33 63 36 44 48 50 51 45 51 51 34 34 42 58 46 52 39 51 51 46 33 36 42 39 36 41 45 46 44 36</t>
-  </si>
-  <si>
-    <t>0 1 0 12 0 0 0 0 7 0 9 0 0 3 0 0 2 0 0 11 0 0 2 0 0 0 0 0 0 0 12 0 0 0 0 15 0 0 0 29 5 13 0 0 0 0 24 6 8 0 17 0 8 18 0 6 17 19 0 0 0 0 0 -2 0 13 11 0 0 0 15 9 0 0 0 9 0 0 0 17 0 8 28 0 11 0 10 0 0 4 0 0 0 0 0 0 0 5 0 0 9 0 4 0 2 3 9 0 0 7 0 0 0</t>
-  </si>
-  <si>
-    <t>8 20 11 0 11 0 0 15 0 9 0 6 0 0 0 14 5 0 0 0 0 11 0 6 0 1 0 10 16 20 0 8 0 0 0 0 0 0 0 0 0 0 0 0 0 12 0 0 6 0 0 20 0 19 0 0 2 11 8 0 0 0 0 0 0 19 17 0 26 0 7 0 0 0 0 0 0 2 12 6 0 4 0 0 0 12 14 0 0 0 9 0 0 0 15 11 0 -4 0</t>
+    <t>64 70 66 71 51 58 70 57 61 55 60 56 56 51 65 68 47 65 59 60 66 64 62 59 68 48 50 46 49 60 50 63 65 64 51 60 63 47 63 55 65 65 63 62 65 64 68 56 53 68 67 58 65 47 54 62 56 52 61 65 64 62 56 64 51 52 63 61 57 64 58 71</t>
+  </si>
+  <si>
+    <t>33 23 30 30 10 14 41 13 15 22 23 4 21 16 22 28 13 25 26 21 24 20 31 22 3 13 23 13 12 25 22 23 18 22 11 16 16 23 21 18 22 22 21 27 16 23 24 10 16 16 24 18 19 7 16 13 10 14 26 32 22 20 18 13 15 13 15 26 15 17 0 29</t>
+  </si>
+  <si>
+    <t>0 22 34 18 0 18 16 27 14 14 25 24 12 28 23 15 44 23 31 26 17 18 17 8 23 19 15 25 25 20 48 19 24 23 19 18 22 18 23 28 38 20 15 33 21 30 22 23 37 22 11 23 12 19 18 18 22 17 17</t>
+  </si>
+  <si>
+    <t>41 32 32 53 62 53 59 54 50 49 44 34 39 55 49 24 46 43 40 56 48 37 41 38 33 35 38 49 23 45 41 71 38 56 48 52 37 50 33 61 46 49 41 40 43 42 54 54 48 51 52 34 55 42 34 35 54 45 42 51 41 38 48 48 43 58 61 28 42 53 55 49 41 34 50 43 51 33 30 40 50 57 57 33 63 36 44 48 50 51 45 51 51 34 34 42 58 46 52 39 51 51 46 33 36 42 39 36 41 45 46 44 36 50 46 51 63 18</t>
+  </si>
+  <si>
+    <t>0 1 0 12 0 0 0 0 7 0 9 0 0 3 0 0 2 0 0 11 0 0 2 0 0 0 0 0 0 0 12 0 0 0 0 15 0 0 0 29 5 13 0 0 0 0 24 6 8 0 17 0 8 18 0 6 17 19 0 0 0 0 0 -2 0 13 11 0 0 0 15 9 0 0 0 9 0 0 0 17 0 8 28 0 11 0 10 0 0 4 0 0 0 0 0 0 0 5 0 0 9 0 4 0 2 3 9 0 0 7 0 0 0 0 0 0 0 0</t>
+  </si>
+  <si>
+    <t>8 20 11 0 11 0 0 15 0 9 0 6 0 0 0 14 5 0 0 0 0 11 0 6 0 1 0 10 16 20 0 8 0 0 0 0 0 0 0 0 0 0 0 0 0 12 0 0 6 0 0 20 0 19 0 0 2 11 8 0 0 0 0 0 0 19 17 0 26 0 7 0 0 0 0 0 0 2 12 6 0 4 0 0 0 12 14 0 0 0 9 0 0 0 15 11 0 -4 0 8 0 0</t>
   </si>
   <si>
     <t>INT</t>
@@ -668,28 +668,28 @@
         <v>3</v>
       </c>
       <c r="C2">
-        <v>315</v>
+        <v>325</v>
       </c>
       <c r="D2">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E2">
         <v>15</v>
       </c>
       <c r="F2">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="G2">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="H2">
         <v>12</v>
       </c>
       <c r="I2">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J2">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="K2" t="s">
         <v>25</v>
@@ -701,10 +701,10 @@
         <v>283</v>
       </c>
       <c r="N2">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="O2">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="P2">
         <v>23</v>
@@ -721,37 +721,37 @@
         <v>15</v>
       </c>
       <c r="C3">
-        <v>314</v>
+        <v>329</v>
       </c>
       <c r="D3">
         <v>8</v>
       </c>
       <c r="E3">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F3">
-        <v>182</v>
+        <v>191</v>
       </c>
       <c r="G3">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="H3">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="I3">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="J3">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="K3" t="s">
         <v>26</v>
       </c>
       <c r="L3">
-        <v>497</v>
+        <v>533</v>
       </c>
       <c r="M3">
-        <v>309</v>
+        <v>326</v>
       </c>
       <c r="N3">
         <v>37</v>
@@ -763,7 +763,7 @@
         <v>17</v>
       </c>
       <c r="Q3">
-        <v>858</v>
+        <v>925</v>
       </c>
     </row>
   </sheetData>
@@ -943,28 +943,28 @@
         <v>7</v>
       </c>
       <c r="C2">
-        <v>353</v>
+        <v>371</v>
       </c>
       <c r="D2">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E2">
         <v>14</v>
       </c>
       <c r="F2">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="G2">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="H2">
         <v>12</v>
       </c>
       <c r="I2">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="J2">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="K2" t="s">
         <v>25</v>
@@ -976,7 +976,7 @@
         <v>344</v>
       </c>
       <c r="N2">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="O2">
         <v>37</v>
@@ -996,37 +996,37 @@
         <v>22</v>
       </c>
       <c r="C3">
-        <v>318</v>
+        <v>329</v>
       </c>
       <c r="D3">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E3">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="F3">
-        <v>203</v>
+        <v>210</v>
       </c>
       <c r="G3">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="H3">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="I3">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="J3">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="K3" t="s">
         <v>26</v>
       </c>
       <c r="L3">
-        <v>513</v>
+        <v>544</v>
       </c>
       <c r="M3">
-        <v>349</v>
+        <v>372</v>
       </c>
       <c r="N3">
         <v>35</v>
@@ -1038,7 +1038,7 @@
         <v>17</v>
       </c>
       <c r="Q3">
-        <v>909</v>
+        <v>978</v>
       </c>
     </row>
   </sheetData>
@@ -1215,28 +1215,28 @@
         <v>41</v>
       </c>
       <c r="B2">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="C2" t="s">
         <v>41</v>
       </c>
       <c r="D2">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="E2" t="s">
         <v>17</v>
       </c>
       <c r="F2">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="G2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="H2">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="I2">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J2">
         <v>175</v>
@@ -1362,13 +1362,13 @@
         <v>26</v>
       </c>
       <c r="B3">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C3">
         <v>14</v>
       </c>
       <c r="D3">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E3">
         <v>14</v>
@@ -1403,7 +1403,7 @@
         <v>56</v>
       </c>
       <c r="B2">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C2" t="s">
         <v>60</v>

--- a/Base/Teams/Giants/Team Data.xlsx
+++ b/Base/Teams/Giants/Team Data.xlsx
@@ -35,16 +35,16 @@
     <t>P</t>
   </si>
   <si>
-    <t>-1 7 -5 1 -4 1 -2 -2 -2 5 -4 4 1 4 6 2 7 -1 13 -1 5 18 0 6 3 6 3 2 7 1 -1 3 2 12 6 0 4 0 6 19 3 2 1 23 -3 7 3 16 1 0 3 8 -1 3 4 4 4 2 4 4 10 3 3 1 3 6 5 10 26 4 3 3 0 13 11 9 2 9 3 2 3 8 2 4 0 1 3 2 5 1 2 4 1 7 -6 6 13 1 6 -2 4 14 -3 -3 5 4 49 0 -1 9 5 8 9 -1 1 8 3 4 0 3 7 2 7 1 4 7 7 10 3 2 3 2 -1 80 1 -2 2 4 0 19 -4 1 14 10 3 0 2 -2 2 2 1 9 1 6 11 3 17 6 4 2 2 1 2 6 5 4 -1 15 7 18 5 6 4 2 4 2 5 2 19 11 5 5 8 1 0 12 3 5 5 3 20 1 -2 2 2 6 -2 4 6 17 2 34 2 6 2 4 10 5 4 0 0 1 6 3 3 4 0 8 1 1 10 1 9 6 1 0 4 -3 6 2 -4 5 4 2 1 0 4 5 3 13 2 1 4 -1 2 4 5 18 4 7 2 4 2 5 2 2 -1 4 7 5 -2 3 -1 3 3 4 2 8 2 5 4 1 -1 6 4 5 3 3 0 5 9 2 3 60 13 4 3 13 23 3 4 0 3 1 5 3 6 -1 8 4 1 3 5 3 0 6 0 13 3 16 3 1 9 -1 4 9 2 2 5 -3 7 8 2 0 2 12 4 4 4 3 1 -3 1 14 3 5 6 1 1 9 3 3 3 15 3 8 10 7 23 3 0 1 1 2 11 4 0 3 5 2 2 7 0 5 11 -1 1 4 5 8 5 -2 4 2 -1 1 5 2 3 7 3 5 2 4 2 6 1 4 5 2 15 -2 2 6 41 6 2 7 5 3 0 9 -1 -6 2 -9 7 2 2 5 11 1 1 2 8 7 2 5 12 -3 15 2 -1 3 4 0 4 6 -3 2 4 2 6 11 4 4 1 1 6 -1 0 4 0 1 7 8 1 17 20 1 1 -3 2 4 1 4 2 1 6 6 4 6 5 1 4 3 4 1 14 2 4 1 0 0 -1 4 0 2 4 -2 7 3 4 4 14 9 2 3 0 2 2 0 6 -1 2 4 2 2 5 4 14 -1 7 2 2 0 1 9 3 0 -2 -2 7 11 3 4 2 3 6 2 2 -2 4 19 0 4 9 2 0 2 -3 11 2 2 6 2 14 5 4 0 3 5 4 10 2 2 6 4 16 5 5 6 2 -2 2 6 1 6 20 5 2 3 5 2 0 5 7 5 2 3 8 -3 4 11 12 2 2 8 6 0 1 3 16 1 2 12 0 9 6 5 0 2 14 2 2 1 1 32 6 -1 -3 7 -4 3 4 13 -1 1 4 3 5 0 1 -1 3 3 10 -2 0 1 0 7 0 23 17 1 0 9 13 3 7 8 4 4 2 0 7 -1 2 7 5 1 7 5 7 4 9 5 -3 13 8 5 8 6 8 7</t>
-  </si>
-  <si>
-    <t>13 14 7 1 11 12 41 14 18 5 13 10 4 4 5 5 4 15 10 6 7 7 5 7 5 17 15 24 12 13 -3 7 7 11 20 12 6 4 2 12 10 11 8 22 4 9 4 2 18 9 13 23 0 11 2 9 8 5 5 10 29 4 22 -7 8 17 -2 10 12 4 6 11 -1 8 12 8 9 7 -1 9 15 13 4 33 5 12 17 18 7 9 3 11 21 16 12 16 -3 7 10 39 3 9 14 -1 2 21 8 10 23 5 9 -4 1 9 18 1 11 39 5 7 -4 17 29 9 12 0 5 0 7 11 7 7 12 5 9 2 8 8 18 0 7 11 5 12 14 11 11 12 6 15 4 11 9 1 12 1 6 10 19 6 6 3 50 4 2 7 8 21 8 10 16 8 7 3 7 12 4 8 7 9 6 0 22 4 11 9 12 3 8 4 17 11 1 4 6 27 38 7 16 7 0 40 -3 6 4 53 6 12 9 11 7 10 18 16 5 7 5 44 2 -9 13 -1 8 15 5 9 22 16 14 11 3 7 -2 3 6 8 6 14 13 6 7 11 3 4 10 3 39 7 24 4 22 35 -1 12 9 14 0 7 1 21 8 10 14 13 24 5 9 12 6 10 7 14 13 9 11 11 4 15 16 19 20 8 -5 7 0 9 16 13 11 3 12 14 15 14 16 9 15 21 10 10 4 2 2 18 33 7 16 3 9 21 13 10 42 -6 4 17 1 6 8 37 2 15 20 8 17 14 6 16 16 6 9 15 8 6 12 16 13 4 4 8 2 6 17 3 4 2 8 12 19 33 13 21 10 8 21 13 14 8 38 19 8 18 12 9 7 4 16 0 13 13 11 10 12 3 7 5 16 4 9 10 13 -4 6 18 4 27 51 19 7 8 17 20 8 4 5 21 1 54 8 5 11 3 28 17 8 18 1 23 38 5 9 18 28 6 35 6 2 26 5 13 13 16 14 13 13 11 7 13 17 8 3 16 2 9 4 14 7 8 3 10 10 11 6 10 3 10 1 11 12 11 11 7 6 2 15 -2 6 18 7 1 27 15 7 16 15 1 6 8 15 -4 2 14 16 2 5 8 9 12 5 50 19 3 11 1 12 41 2 5 4 22 4 6 11 6 5 7 16 4 3 3 9 5 30 6 12 7 -7 14 3 14 2 9 1 -1 6 9 12 9 4 3 5 5 0 11 21 4 28 8 11 8 -1 7 2 4 5 5 1 20 7 18 19 6 14 9 0 10 17 17 1 18 18 5 4 10 8 3 15 -3 7 -5 4 18 20 -1 5 12 16 6 11 17 8 3 9 8 2 10 11 11 5 15 6 60 3 7 -2 1 17 3 9 6 18 10 1 8 24</t>
-  </si>
-  <si>
-    <t>2 3 0 3 1 3 6 -1 1 8 1 5 11 3 14 5 0 21 -2 1 5 0 30 2 4 1 7 1 3 2 5 -1 4 7 1 1 3 8 10 1 3 3 1 2 0 4 4 3 2 2 5 6 11 10 -1 12 23 0 1 0 3 1 9 0 3 4 4 -3 -1 5 4 4 0 -1 -3 11 10 5 2 0 19 19 1 -1 2 3 1 23 3 6 3 -2 2 2 2 4 3 3 2 4 2 9 -1 13 3 4 0 3 5 1 -2 2 3 2 -2 2 9 9 5 5 3 8 3 8 1 0 1 9 7 1 13 9 12 0 0 7 4 7 -1 3 -2 2 4 1 14 5 0 0 0 6 0 0 3 8 -1 2 4 11 6 2 6 1 4 2 3 1 12 5 8 1 0 1 1 2 3 7 5 3 10 3 2 0 2 1 2 0 4 6 12 4 2 4 5 5 2 13 1 2 2 7 2 3 7 7 0 3 3 2 -2 2 7 0 2 2 5 1 10 -1 6 11 1 5 9 11 2 7 2 4 5 -1 5 3 14 56 4 0 14 5 13 -1 4 1 -2 0 0 1 2 -4 4 2 15 2 1 8 4 -2 1 11 11 0 7 12 4 7 2 0 7 3 1 19 11 3 0 1 1 1 5 2 3 3 0 -4 6 3 10 2 1 5 2 -1 15 -1 1 -4 11 12 2 4 3 5 36 3 4 1 4 4 5 3 7 7 10 1 1 -3 -3 0 1 6 4 4 3 1 5 -2 1 2 -1 4 14 4 4 4 -1 6 5 3 15 4 1 2 -2 0 1 1 21 -1 3 1 4 3 5 6 2 7 8 5 1 18 3 6 2 6 17 2 9 5 7 3 2 7 7 20 32 0 7 1 25 5 6 3 6 0 3 0 7 0 0 3 13 -2 2 2 3 0 6 0 2 7 3 2 2 5 1 6 5 13 -2 2 3 4 4 4 9 -1 2 5 2 9 2 2 -2 8 7 3 0 5 4 6 6 2 2 12 3 8 0 2 4 70 3 -1 2 1 6 2 5 0 5 1 10 2 2 2 2 7 14 3 1 3 1 11 3 4 1 0 5 2 11 1 3 11 5 10 3 3 3 2 0 2 1 3 -1 6 10 6 3 3 3 2 5 4 2 3 8 1 3 2 5 8 1 8 5 3 4 6 9 2 9 4 4 4 8 7 1 0 3 2 8 1 5 2 15 4 4 6 6 17 4 5 3 6 6 3 5 12 0 0 14 0 4 3 7 -2 5 3 14 0 10 2 2 7 4 13 2 2 2 3 2 1 0 22 9 15 0 4 3 4 2 2 8 0 8 6 10 5 3 1 3 0 1 9 6 5 2 4 5 0 3 3 0 3 6 13 7 -3 2 -2 2 2 4 7 -4 0 1 3 2 5 2 10 -3 4 2 4 4 9 7 5 9 3 8 12 -1 3 4 6 0 -1 1 8 6 -1 11 6 13 3 0 13 3 7 2 1 14 4 1 0 3 4 21 2 3 7 10 7 6 3 2 5 10 3 3 4 6 2 7 -1 3 4 9 2 2 1 3 -3 2 -1 -1 1 7 4 5 3 2 11 5 7 2 14 18 6 1 27 3 5 12 5 4 13 5 13 12 1 1 6 3 4 3 4 0 2 2 4 11 2 0 6 1 6 2 3 0 2 3 4 1 3 4 4 2 3 2 2 0 14 9 5 5 9 1 1 0 2 17 2 3 3 12 4 -1 6 4 8 2 4 2 6 1 3 2 10 9 0 3 2 0 2 4</t>
-  </si>
-  <si>
-    <t>11 28 6 2 18 3 10 2 21 17 14 13 9 10 18 1 11 5 11 11 8 17 15 2 28 18 9 -1 14 16 12 2 12 15 4 8 5 9 20 14 11 12 9 1 14 7 14 17 20 14 26 8 14 19 6 5 11 19 19 18 9 20 16 9 16 8 8 8 10 5 7 11 5 4 -2 0 15 -1 4 7 -1 1 2 7 8 7 7 55 6 18 10 14 3 13 4 10 8 5 26 6 21 11 22 11 8 8 9 -7 10 15 19 38 9 4 3 29 10 8 11 20 8 12 2 0 8 7 5 11 6 4 5 10 11 5 18 5 3 13 6 8 22 10 8 9 18 15 13 12 8 16 14 6 10 1 15 16 7 3 6 11 40 59 3 11 30 18 9 19 3 10 3 7 14 3 9 2 8 9 15 12 8 1 9 8 4 16 3 20 25 8 18 21 7 11 11 12 6 0 7 6 14 32 45 8 6 33 7 15 3 6 8 8 68 8 5 8 7 10 11 4 8 8 5 22 19 15 6 1 6 5 16 8 16 5 9 13 7 6 12 9 16 11 1 5 1 10 2 4 13 7 14 4 5 18 16 1 5 6 24 6 6 6 4 12 18 6 21 -6 5 14 1 5 3 10 11 9 5 21 12 28 6 15 10 5 5 15 17 1 8 20 1 7 2 12 24 9 9 7 4 8 10 13 -3 7 41 11 11 3 5 8 17 4 6 17 10 22 9 2 7 18 15 22 5 2 12 18 20 8 22 6 17 8 19 -5 13 13 9 6 11 6 11 20 0 7 25 6 10 4 8 27 7 4 9 3 13 16 9 6 14 9 6 11 7 21 7 10 -3 5 20 7 10 8 3 16 3 10 5 3 5 7 15 13 7 6 1 9 5 25 -4 5 11 6 2 6 17 16 2 10 6 8 20 7 22 13 3 7 5 22 12 4 4 16 11 8 12 0 24 12 7 6 10 7 4 4 8 18 9 0 3 10 7 56 19 2 7 9 5 7 6 3 8 19 3 4 9 20 4 6 12 14 3 4 1 12 3 -1 10 26 4 6 14 4 1 1 28 25 -3 11 9 6 18 2 11 6 5 6 19 15 58 9 21 15 3 16 8 6 8 6 2 49 6 8 -2 11 21 7 15 24 11 30 15 4 8 14 18 22 35 7 30 16 6 28 10 15 9 4 4 -6 9 -4 16 25 4 4 5 18 5 6 13 4 2 9 1 3 5 5 12 21 5 12 6 13 7 5 1 7 7 19 10 3 9 12 7 0 15 5 6 6 7 11 9 17 9 3 11 12 9 18 8 4 9 10 10 15 14 24 2 6 6 20 6 2 8 3 7 8 10 20 7 2 15 9 5 9 20 24 22 11 2 3 12 3 19 9 17 8 3 10 8 15 3 13 7 10 8 6 6 6 7 4 35 7 12 16 3 13 9 17 14 14 18 4 5 8 3 21 5 3 14 0 19 2 0 13 4 21 6 10 8 7 14 11 9 5 11 1 4 12 8 6 -2 6 8 4 8 5 9 2 9 17 4 6 5 3 17 25 11 13 3 2 16 17 15 7 5 11 9 -2 15 12 10 25 7 2 7 5 17 59 7 36 5 11 8 3 1</t>
+    <t>-1 7 -5 1 -4 1 -2 -2 -2 5 -4 4 1 4 6 2 7 -1 13 -1 5 18 0 6 3 6 3 2 7 1 -1 3 2 12 6 0 4 0 6 19 3 2 1 23 -3 7 3 16 1 0 3 8 -1 3 4 4 4 2 4 4 10 3 3 1 3 6 5 10 26 4 3 3 0 13 11 9 2 9 3 2 3 8 2 4 0 1 3 2 5 1 2 4 1 7 -6 6 13 1 6 -2 4 14 -3 -3 5 4 49 0 -1 9 5 8 9 -1 1 8 3 4 0 3 7 2 7 1 4 7 7 10 3 2 3 2 -1 80 1 -2 2 4 0 19 -4 1 14 10 3 0 2 -2 2 2 1 9 1 6 11 3 17 6 4 2 2 1 2 6 5 4 -1 15 7 18 5 6 4 2 4 2 5 2 19 11 5 5 8 1 0 12 3 5 5 3 20 1 -2 2 2 6 -2 4 6 17 2 34 2 6 2 4 10 5 4 0 0 1 6 3 3 4 0 8 1 1 10 1 9 6 1 0 4 -3 6 2 -4 5 4 2 1 0 4 5 3 13 2 1 4 -1 2 4 5 18 4 7 2 4 2 5 2 2 -1 4 7 5 -2 3 -1 3 3 4 2 8 2 5 4 1 -1 6 4 5 3 3 0 5 9 2 3 60 13 4 3 13 23 3 4 0 3 1 5 3 6 -1 8 4 1 3 5 3 0 6 0 13 3 16 3 1 9 -1 4 9 2 2 5 -3 7 8 2 0 2 12 4 4 4 3 1 -3 1 14 3 5 6 1 1 9 3 3 3 15 3 8 10 7 23 3 0 1 1 2 11 4 0 3 5 2 2 7 0 5 11 -1 1 4 5 8 5 -2 4 2 -1 1 5 2 3 7 3 5 2 4 2 6 1 4 5 2 15 -2 2 6 41 6 2 7 5 3 0 9 -1 -6 2 -9 7 2 2 5 11 1 1 2 8 7 2 5 12 -3 15 2 -1 3 4 0 4 6 -3 2 4 2 6 11 4 4 1 1 6 -1 0 4 0 1 7 8 1 17 20 1 1 -3 2 4 1 4 2 1 6 6 4 6 5 1 4 3 4 1 14 2 4 1 0 0 -1 4 0 2 4 -2 7 3 4 4 14 9 2 3 0 2 2 0 6 -1 2 4 2 2 5 4 14 -1 7 2 2 0 1 9 3 0 -2 -2 7 11 3 4 2 3 6 2 2 -2 4 19 0 4 9 2 0 2 -3 11 2 2 6 2 14 5 4 0 3 5 4 10 2 2 6 4 16 5 5 6 2 -2 2 6 1 6 20 5 2 3 5 2 0 5 7 5 2 3 8 -3 4 11 12 2 2 8 6 0 1 3 16 1 2 12 0 9 6 5 0 2 14 2 2 1 1 32 6 -1 -3 7 -4 3 4 13 -1 1 4 3 5 0 1 -1 3 3 10 -2 0 1 0 7 0 23 17 1 0 9 13 3 7 8 4 4 2 0 7 -1 2 7 5 1 7 5 7 4 9 5 -3 13 8 5 8 6 8 7 1 6 5 4 5 5 28 4 5 0 5 1 -3 0 6 6 3 5 1 3 2 0</t>
+  </si>
+  <si>
+    <t>13 14 7 1 11 12 41 14 18 5 13 10 4 4 5 5 4 15 10 6 7 7 5 7 5 17 15 24 12 13 -3 7 7 11 20 12 6 4 2 12 10 11 8 22 4 9 4 2 18 9 13 23 0 11 2 9 8 5 5 10 29 4 22 -7 8 17 -2 10 12 4 6 11 -1 8 12 8 9 7 -1 9 15 13 4 33 5 12 17 18 7 9 3 11 21 16 12 16 -3 7 10 39 3 9 14 -1 2 21 8 10 23 5 9 -4 1 9 18 1 11 39 5 7 -4 17 29 9 12 0 5 0 7 11 7 7 12 5 9 2 8 8 18 0 7 11 5 12 14 11 11 12 6 15 4 11 9 1 12 1 6 10 19 6 6 3 50 4 2 7 8 21 8 10 16 8 7 3 7 12 4 8 7 9 6 0 22 4 11 9 12 3 8 4 17 11 1 4 6 27 38 7 16 7 0 40 -3 6 4 53 6 12 9 11 7 10 18 16 5 7 5 44 2 -9 13 -1 8 15 5 9 22 16 14 11 3 7 -2 3 6 8 6 14 13 6 7 11 3 4 10 3 39 7 24 4 22 35 -1 12 9 14 0 7 1 21 8 10 14 13 24 5 9 12 6 10 7 14 13 9 11 11 4 15 16 19 20 8 -5 7 0 9 16 13 11 3 12 14 15 14 16 9 15 21 10 10 4 2 2 18 33 7 16 3 9 21 13 10 42 -6 4 17 1 6 8 37 2 15 20 8 17 14 6 16 16 6 9 15 8 6 12 16 13 4 4 8 2 6 17 3 4 2 8 12 19 33 13 21 10 8 21 13 14 8 38 19 8 18 12 9 7 4 16 0 13 13 11 10 12 3 7 5 16 4 9 10 13 -4 6 18 4 27 51 19 7 8 17 20 8 4 5 21 1 54 8 5 11 3 28 17 8 18 1 23 38 5 9 18 28 6 35 6 2 26 5 13 13 16 14 13 13 11 7 13 17 8 3 16 2 9 4 14 7 8 3 10 10 11 6 10 3 10 1 11 12 11 11 7 6 2 15 -2 6 18 7 1 27 15 7 16 15 1 6 8 15 -4 2 14 16 2 5 8 9 12 5 50 19 3 11 1 12 41 2 5 4 22 4 6 11 6 5 7 16 4 3 3 9 5 30 6 12 7 -7 14 3 14 2 9 1 -1 6 9 12 9 4 3 5 5 0 11 21 4 28 8 11 8 -1 7 2 4 5 5 1 20 7 18 19 6 14 9 0 10 17 17 1 18 18 5 4 10 8 3 15 -3 7 -5 4 18 20 -1 5 12 16 6 11 17 8 3 9 8 2 10 11 11 5 15 6 60 3 7 -2 1 17 3 9 6 18 10 1 8 24 8 2 16 4 15 0 3 4 9 15 9 7 7 8 14 7 7 10 36</t>
+  </si>
+  <si>
+    <t>2 3 0 3 1 3 6 -1 1 8 1 5 11 3 14 5 0 21 -2 1 5 0 30 2 4 1 7 1 3 2 5 -1 4 7 1 1 3 8 10 1 3 3 1 2 0 4 4 3 2 2 5 6 11 10 -1 12 23 0 1 0 3 1 9 0 3 4 4 -3 -1 5 4 4 0 -1 -3 11 10 5 2 0 19 19 1 -1 2 3 1 23 3 6 3 -2 2 2 2 4 3 3 2 4 2 9 -1 13 3 4 0 3 5 1 -2 2 3 2 -2 2 9 9 5 5 3 8 3 8 1 0 1 9 7 1 13 9 12 0 0 7 4 7 -1 3 -2 2 4 1 14 5 0 0 0 6 0 0 3 8 -1 2 4 11 6 2 6 1 4 2 3 1 12 5 8 1 0 1 1 2 3 7 5 3 10 3 2 0 2 1 2 0 4 6 12 4 2 4 5 5 2 13 1 2 2 7 2 3 7 7 0 3 3 2 -2 2 7 0 2 2 5 1 10 -1 6 11 1 5 9 11 2 7 2 4 5 -1 5 3 14 56 4 0 14 5 13 -1 4 1 -2 0 0 1 2 -4 4 2 15 2 1 8 4 -2 1 11 11 0 7 12 4 7 2 0 7 3 1 19 11 3 0 1 1 1 5 2 3 3 0 -4 6 3 10 2 1 5 2 -1 15 -1 1 -4 11 12 2 4 3 5 36 3 4 1 4 4 5 3 7 7 10 1 1 -3 -3 0 1 6 4 4 3 1 5 -2 1 2 -1 4 14 4 4 4 -1 6 5 3 15 4 1 2 -2 0 1 1 21 -1 3 1 4 3 5 6 2 7 8 5 1 18 3 6 2 6 17 2 9 5 7 3 2 7 7 20 32 0 7 1 25 5 6 3 6 0 3 0 7 0 0 3 13 -2 2 2 3 0 6 0 2 7 3 2 2 5 1 6 5 13 -2 2 3 4 4 4 9 -1 2 5 2 9 2 2 -2 8 7 3 0 5 4 6 6 2 2 12 3 8 0 2 4 70 3 -1 2 1 6 2 5 0 5 1 10 2 2 2 2 7 14 3 1 3 1 11 3 4 1 0 5 2 11 1 3 11 5 10 3 3 3 2 0 2 1 3 -1 6 10 6 3 3 3 2 5 4 2 3 8 1 3 2 5 8 1 8 5 3 4 6 9 2 9 4 4 4 8 7 1 0 3 2 8 1 5 2 15 4 4 6 6 17 4 5 3 6 6 3 5 12 0 0 14 0 4 3 7 -2 5 3 14 0 10 2 2 7 4 13 2 2 2 3 2 1 0 22 9 15 0 4 3 4 2 2 8 0 8 6 10 5 3 1 3 0 1 9 6 5 2 4 5 0 3 3 0 3 6 13 7 -3 2 -2 2 2 4 7 -4 0 1 3 2 5 2 10 -3 4 2 4 4 9 7 5 9 3 8 12 -1 3 4 6 0 -1 1 8 6 -1 11 6 13 3 0 13 3 7 2 1 14 4 1 0 3 4 21 2 3 7 10 7 6 3 2 5 10 3 3 4 6 2 7 -1 3 4 9 2 2 1 3 -3 2 -1 -1 1 7 4 5 3 2 11 5 7 2 14 18 6 1 27 3 5 12 5 4 13 5 13 12 1 1 6 3 4 3 4 0 2 2 4 11 2 0 6 1 6 2 3 0 2 3 4 1 3 4 4 2 3 2 2 0 14 9 5 5 9 1 1 0 2 17 2 3 3 12 4 -1 6 4 8 2 4 2 6 1 3 2 10 9 0 3 2 0 2 4 3 -1 7 8 4 13 17 2 3 2 0 2 3 10 7 9 12 2 5 0 0 2 1 -2 1 12 3 1</t>
+  </si>
+  <si>
+    <t>11 28 6 2 18 3 10 2 21 17 14 13 9 10 18 1 11 5 11 11 8 17 15 2 28 18 9 -1 14 16 12 2 12 15 4 8 5 9 20 14 11 12 9 1 14 7 14 17 20 14 26 8 14 19 6 5 11 19 19 18 9 20 16 9 16 8 8 8 10 5 7 11 5 4 -2 0 15 -1 4 7 -1 1 2 7 8 7 7 55 6 18 10 14 3 13 4 10 8 5 26 6 21 11 22 11 8 8 9 -7 10 15 19 38 9 4 3 29 10 8 11 20 8 12 2 0 8 7 5 11 6 4 5 10 11 5 18 5 3 13 6 8 22 10 8 9 18 15 13 12 8 16 14 6 10 1 15 16 7 3 6 11 40 59 3 11 30 18 9 19 3 10 3 7 14 3 9 2 8 9 15 12 8 1 9 8 4 16 3 20 25 8 18 21 7 11 11 12 6 0 7 6 14 32 45 8 6 33 7 15 3 6 8 8 68 8 5 8 7 10 11 4 8 8 5 22 19 15 6 1 6 5 16 8 16 5 9 13 7 6 12 9 16 11 1 5 1 10 2 4 13 7 14 4 5 18 16 1 5 6 24 6 6 6 4 12 18 6 21 -6 5 14 1 5 3 10 11 9 5 21 12 28 6 15 10 5 5 15 17 1 8 20 1 7 2 12 24 9 9 7 4 8 10 13 -3 7 41 11 11 3 5 8 17 4 6 17 10 22 9 2 7 18 15 22 5 2 12 18 20 8 22 6 17 8 19 -5 13 13 9 6 11 6 11 20 0 7 25 6 10 4 8 27 7 4 9 3 13 16 9 6 14 9 6 11 7 21 7 10 -3 5 20 7 10 8 3 16 3 10 5 3 5 7 15 13 7 6 1 9 5 25 -4 5 11 6 2 6 17 16 2 10 6 8 20 7 22 13 3 7 5 22 12 4 4 16 11 8 12 0 24 12 7 6 10 7 4 4 8 18 9 0 3 10 7 56 19 2 7 9 5 7 6 3 8 19 3 4 9 20 4 6 12 14 3 4 1 12 3 -1 10 26 4 6 14 4 1 1 28 25 -3 11 9 6 18 2 11 6 5 6 19 15 58 9 21 15 3 16 8 6 8 6 2 49 6 8 -2 11 21 7 15 24 11 30 15 4 8 14 18 22 35 7 30 16 6 28 10 15 9 4 4 -6 9 -4 16 25 4 4 5 18 5 6 13 4 2 9 1 3 5 5 12 21 5 12 6 13 7 5 1 7 7 19 10 3 9 12 7 0 15 5 6 6 7 11 9 17 9 3 11 12 9 18 8 4 9 10 10 15 14 24 2 6 6 20 6 2 8 3 7 8 10 20 7 2 15 9 5 9 20 24 22 11 2 3 12 3 19 9 17 8 3 10 8 15 3 13 7 10 8 6 6 6 7 4 35 7 12 16 3 13 9 17 14 14 18 4 5 8 3 21 5 3 14 0 19 2 0 13 4 21 6 10 8 7 14 11 9 5 11 1 4 12 8 6 -2 6 8 4 8 5 9 2 9 17 4 6 5 3 17 25 11 13 3 2 16 17 15 7 5 11 9 -2 15 12 10 25 7 2 7 5 17 59 7 36 5 11 8 3 1 9 11 4 2 19 4 9 9 6 5 11 3 3 6 7 15 9 3 7 3 10 16 10 1 11 7 9 7</t>
   </si>
   <si>
     <t>1N11+</t>
@@ -161,22 +161,22 @@
     <t>RM</t>
   </si>
   <si>
-    <t>64 70 66 71 51 58 70 57 61 55 60 56 56 51 65 68 47 65 59 60 66 64 62 59 68 48 50 46 49 60 50 63 65 64 51 60 63 47 63 55 65 65 63 62 65 64 68 56 53 68 67 58 65 47 54 62 56 52 61 65 64 62 56 64 51 52 63 61 57 64 58 71</t>
-  </si>
-  <si>
-    <t>33 23 30 30 10 14 41 13 15 22 23 4 21 16 22 28 13 25 26 21 24 20 31 22 3 13 23 13 12 25 22 23 18 22 11 16 16 23 21 18 22 22 21 27 16 23 24 10 16 16 24 18 19 7 16 13 10 14 26 32 22 20 18 13 15 13 15 26 15 17 0 29</t>
-  </si>
-  <si>
-    <t>0 22 34 18 0 18 16 27 14 14 25 24 12 28 23 15 44 23 31 26 17 18 17 8 23 19 15 25 25 20 48 19 24 23 19 18 22 18 23 28 38 20 15 33 21 30 22 23 37 22 11 23 12 19 18 18 22 17 17</t>
-  </si>
-  <si>
-    <t>41 32 32 53 62 53 59 54 50 49 44 34 39 55 49 24 46 43 40 56 48 37 41 38 33 35 38 49 23 45 41 71 38 56 48 52 37 50 33 61 46 49 41 40 43 42 54 54 48 51 52 34 55 42 34 35 54 45 42 51 41 38 48 48 43 58 61 28 42 53 55 49 41 34 50 43 51 33 30 40 50 57 57 33 63 36 44 48 50 51 45 51 51 34 34 42 58 46 52 39 51 51 46 33 36 42 39 36 41 45 46 44 36 50 46 51 63 18</t>
-  </si>
-  <si>
-    <t>0 1 0 12 0 0 0 0 7 0 9 0 0 3 0 0 2 0 0 11 0 0 2 0 0 0 0 0 0 0 12 0 0 0 0 15 0 0 0 29 5 13 0 0 0 0 24 6 8 0 17 0 8 18 0 6 17 19 0 0 0 0 0 -2 0 13 11 0 0 0 15 9 0 0 0 9 0 0 0 17 0 8 28 0 11 0 10 0 0 4 0 0 0 0 0 0 0 5 0 0 9 0 4 0 2 3 9 0 0 7 0 0 0 0 0 0 0 0</t>
-  </si>
-  <si>
-    <t>8 20 11 0 11 0 0 15 0 9 0 6 0 0 0 14 5 0 0 0 0 11 0 6 0 1 0 10 16 20 0 8 0 0 0 0 0 0 0 0 0 0 0 0 0 12 0 0 6 0 0 20 0 19 0 0 2 11 8 0 0 0 0 0 0 19 17 0 26 0 7 0 0 0 0 0 0 2 12 6 0 4 0 0 0 12 14 0 0 0 9 0 0 0 15 11 0 -4 0 8 0 0</t>
+    <t>64 70 66 71 51 58 70 57 61 55 60 56 56 51 65 68 47 65 59 60 66 64 62 59 68 48 50 46 49 60 50 63 65 64 51 60 63 47 63 55 65 65 63 62 65 64 68 56 53 68 67 58 65 47 54 62 56 52 61 65 64 62 56 64 51 52 63 61 57 64 58 71 62 60</t>
+  </si>
+  <si>
+    <t>33 23 30 30 10 14 41 13 15 22 23 4 21 16 22 28 13 25 26 21 24 20 31 22 3 13 23 13 12 25 22 23 18 22 11 16 16 23 21 18 22 22 21 27 16 23 24 10 16 16 24 18 19 7 16 13 10 14 26 32 22 20 18 13 15 13 15 26 15 17 0 29 21 29</t>
+  </si>
+  <si>
+    <t>0 22 34 18 0 18 16 27 14 14 25 24 12 28 23 15 44 23 31 26 17 18 17 8 23 19 15 25 25 20 48 19 24 23 19 18 22 18 23 28 38 20 15 33 21 30 22 23 37 22 11 23 12 19 18 18 22 17 17 15</t>
+  </si>
+  <si>
+    <t>41 32 32 53 62 53 59 54 50 49 44 34 39 55 49 24 46 43 40 56 48 37 41 38 33 35 38 49 23 45 41 71 38 56 48 52 37 50 33 61 46 49 41 40 43 42 54 54 48 51 52 34 55 42 34 35 54 45 42 51 41 38 48 48 43 58 61 28 42 53 55 49 41 34 50 43 51 33 30 40 50 57 57 33 63 36 44 48 50 51 45 51 51 34 34 42 58 46 52 39 51 51 46 33 36 42 39 36 41 45 46 44 36 50 46 51 63 18 50 51</t>
+  </si>
+  <si>
+    <t>0 1 0 12 0 0 0 0 7 0 9 0 0 3 0 0 2 0 0 11 0 0 2 0 0 0 0 0 0 0 12 0 0 0 0 15 0 0 0 29 5 13 0 0 0 0 24 6 8 0 17 0 8 18 0 6 17 19 0 0 0 0 0 -2 0 13 11 0 0 0 15 9 0 0 0 9 0 0 0 17 0 8 28 0 11 0 10 0 0 4 0 0 0 0 0 0 0 5 0 0 9 0 4 0 2 3 9 0 0 7 0 0 0 0 0 0 0 0 0 0</t>
+  </si>
+  <si>
+    <t>8 20 11 0 11 0 0 15 0 9 0 6 0 0 0 14 5 0 0 0 0 11 0 6 0 1 0 10 16 20 0 8 0 0 0 0 0 0 0 0 0 0 0 0 0 12 0 0 6 0 0 20 0 19 0 0 2 11 8 0 0 0 0 0 0 19 17 0 26 0 7 0 0 0 0 0 0 2 12 6 0 4 0 0 0 12 14 0 0 0 9 0 0 0 15 11 0 -4 0 8 0 0 0 0 0 0</t>
   </si>
   <si>
     <t>INT</t>
@@ -668,7 +668,7 @@
         <v>3</v>
       </c>
       <c r="C2">
-        <v>325</v>
+        <v>337</v>
       </c>
       <c r="D2">
         <v>18</v>
@@ -677,40 +677,40 @@
         <v>15</v>
       </c>
       <c r="F2">
-        <v>117</v>
+        <v>125</v>
       </c>
       <c r="G2">
         <v>84</v>
       </c>
       <c r="H2">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I2">
         <v>13</v>
       </c>
       <c r="J2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="K2" t="s">
         <v>25</v>
       </c>
       <c r="L2">
-        <v>449</v>
+        <v>485</v>
       </c>
       <c r="M2">
-        <v>283</v>
+        <v>302</v>
       </c>
       <c r="N2">
         <v>41</v>
       </c>
       <c r="O2">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="P2">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="Q2">
-        <v>810</v>
+        <v>878</v>
       </c>
     </row>
     <row r="3" spans="1:17">
@@ -718,31 +718,31 @@
         <v>18</v>
       </c>
       <c r="B3">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C3">
-        <v>329</v>
+        <v>340</v>
       </c>
       <c r="D3">
         <v>8</v>
       </c>
       <c r="E3">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="F3">
-        <v>191</v>
+        <v>198</v>
       </c>
       <c r="G3">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="H3">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="I3">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="J3">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="K3" t="s">
         <v>26</v>
@@ -754,7 +754,7 @@
         <v>326</v>
       </c>
       <c r="N3">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="O3" t="s">
         <v>17</v>
@@ -943,37 +943,37 @@
         <v>7</v>
       </c>
       <c r="C2">
-        <v>371</v>
+        <v>383</v>
       </c>
       <c r="D2">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E2">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F2">
-        <v>121</v>
+        <v>127</v>
       </c>
       <c r="G2">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="H2">
         <v>12</v>
       </c>
       <c r="I2">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J2">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="K2" t="s">
         <v>25</v>
       </c>
       <c r="L2">
-        <v>516</v>
+        <v>553</v>
       </c>
       <c r="M2">
-        <v>344</v>
+        <v>372</v>
       </c>
       <c r="N2">
         <v>30</v>
@@ -985,7 +985,7 @@
         <v>24</v>
       </c>
       <c r="Q2">
-        <v>931</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="3" spans="1:17">
@@ -996,28 +996,28 @@
         <v>22</v>
       </c>
       <c r="C3">
-        <v>329</v>
+        <v>346</v>
       </c>
       <c r="D3">
         <v>7</v>
       </c>
       <c r="E3">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F3">
-        <v>210</v>
+        <v>219</v>
       </c>
       <c r="G3">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="H3">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="I3">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="J3">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="K3" t="s">
         <v>26</v>
@@ -1029,7 +1029,7 @@
         <v>372</v>
       </c>
       <c r="N3">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="O3" t="s">
         <v>17</v>
@@ -1215,13 +1215,13 @@
         <v>41</v>
       </c>
       <c r="B2">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="C2" t="s">
         <v>41</v>
       </c>
       <c r="D2">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E2" t="s">
         <v>17</v>
@@ -1239,16 +1239,16 @@
         <v>6</v>
       </c>
       <c r="J2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="K2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="L2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="M2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="N2">
         <v>50</v>
@@ -1268,7 +1268,7 @@
         <v>42</v>
       </c>
       <c r="B3">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C3" t="s">
         <v>43</v>
@@ -1345,16 +1345,16 @@
         <v>25</v>
       </c>
       <c r="B2">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C2">
         <v>10</v>
       </c>
       <c r="D2">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E2">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1368,7 +1368,7 @@
         <v>14</v>
       </c>
       <c r="D3">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E3">
         <v>14</v>
@@ -1403,7 +1403,7 @@
         <v>56</v>
       </c>
       <c r="B2">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="C2" t="s">
         <v>60</v>
@@ -1417,7 +1417,7 @@
         <v>57</v>
       </c>
       <c r="B3">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
         <v>57</v>

--- a/Base/Teams/Giants/Team Data.xlsx
+++ b/Base/Teams/Giants/Team Data.xlsx
@@ -35,16 +35,16 @@
     <t>P</t>
   </si>
   <si>
-    <t>-1 7 -5 1 -4 1 -2 -2 -2 5 -4 4 1 4 6 2 7 -1 13 -1 5 18 0 6 3 6 3 2 7 1 -1 3 2 12 6 0 4 0 6 19 3 2 1 23 -3 7 3 16 1 0 3 8 -1 3 4 4 4 2 4 4 10 3 3 1 3 6 5 10 26 4 3 3 0 13 11 9 2 9 3 2 3 8 2 4 0 1 3 2 5 1 2 4 1 7 -6 6 13 1 6 -2 4 14 -3 -3 5 4 49 0 -1 9 5 8 9 -1 1 8 3 4 0 3 7 2 7 1 4 7 7 10 3 2 3 2 -1 80 1 -2 2 4 0 19 -4 1 14 10 3 0 2 -2 2 2 1 9 1 6 11 3 17 6 4 2 2 1 2 6 5 4 -1 15 7 18 5 6 4 2 4 2 5 2 19 11 5 5 8 1 0 12 3 5 5 3 20 1 -2 2 2 6 -2 4 6 17 2 34 2 6 2 4 10 5 4 0 0 1 6 3 3 4 0 8 1 1 10 1 9 6 1 0 4 -3 6 2 -4 5 4 2 1 0 4 5 3 13 2 1 4 -1 2 4 5 18 4 7 2 4 2 5 2 2 -1 4 7 5 -2 3 -1 3 3 4 2 8 2 5 4 1 -1 6 4 5 3 3 0 5 9 2 3 60 13 4 3 13 23 3 4 0 3 1 5 3 6 -1 8 4 1 3 5 3 0 6 0 13 3 16 3 1 9 -1 4 9 2 2 5 -3 7 8 2 0 2 12 4 4 4 3 1 -3 1 14 3 5 6 1 1 9 3 3 3 15 3 8 10 7 23 3 0 1 1 2 11 4 0 3 5 2 2 7 0 5 11 -1 1 4 5 8 5 -2 4 2 -1 1 5 2 3 7 3 5 2 4 2 6 1 4 5 2 15 -2 2 6 41 6 2 7 5 3 0 9 -1 -6 2 -9 7 2 2 5 11 1 1 2 8 7 2 5 12 -3 15 2 -1 3 4 0 4 6 -3 2 4 2 6 11 4 4 1 1 6 -1 0 4 0 1 7 8 1 17 20 1 1 -3 2 4 1 4 2 1 6 6 4 6 5 1 4 3 4 1 14 2 4 1 0 0 -1 4 0 2 4 -2 7 3 4 4 14 9 2 3 0 2 2 0 6 -1 2 4 2 2 5 4 14 -1 7 2 2 0 1 9 3 0 -2 -2 7 11 3 4 2 3 6 2 2 -2 4 19 0 4 9 2 0 2 -3 11 2 2 6 2 14 5 4 0 3 5 4 10 2 2 6 4 16 5 5 6 2 -2 2 6 1 6 20 5 2 3 5 2 0 5 7 5 2 3 8 -3 4 11 12 2 2 8 6 0 1 3 16 1 2 12 0 9 6 5 0 2 14 2 2 1 1 32 6 -1 -3 7 -4 3 4 13 -1 1 4 3 5 0 1 -1 3 3 10 -2 0 1 0 7 0 23 17 1 0 9 13 3 7 8 4 4 2 0 7 -1 2 7 5 1 7 5 7 4 9 5 -3 13 8 5 8 6 8 7 1 6 5 4 5 5 28 4 5 0 5 1 -3 0 6 6 3 5 1 3 2 0</t>
-  </si>
-  <si>
-    <t>13 14 7 1 11 12 41 14 18 5 13 10 4 4 5 5 4 15 10 6 7 7 5 7 5 17 15 24 12 13 -3 7 7 11 20 12 6 4 2 12 10 11 8 22 4 9 4 2 18 9 13 23 0 11 2 9 8 5 5 10 29 4 22 -7 8 17 -2 10 12 4 6 11 -1 8 12 8 9 7 -1 9 15 13 4 33 5 12 17 18 7 9 3 11 21 16 12 16 -3 7 10 39 3 9 14 -1 2 21 8 10 23 5 9 -4 1 9 18 1 11 39 5 7 -4 17 29 9 12 0 5 0 7 11 7 7 12 5 9 2 8 8 18 0 7 11 5 12 14 11 11 12 6 15 4 11 9 1 12 1 6 10 19 6 6 3 50 4 2 7 8 21 8 10 16 8 7 3 7 12 4 8 7 9 6 0 22 4 11 9 12 3 8 4 17 11 1 4 6 27 38 7 16 7 0 40 -3 6 4 53 6 12 9 11 7 10 18 16 5 7 5 44 2 -9 13 -1 8 15 5 9 22 16 14 11 3 7 -2 3 6 8 6 14 13 6 7 11 3 4 10 3 39 7 24 4 22 35 -1 12 9 14 0 7 1 21 8 10 14 13 24 5 9 12 6 10 7 14 13 9 11 11 4 15 16 19 20 8 -5 7 0 9 16 13 11 3 12 14 15 14 16 9 15 21 10 10 4 2 2 18 33 7 16 3 9 21 13 10 42 -6 4 17 1 6 8 37 2 15 20 8 17 14 6 16 16 6 9 15 8 6 12 16 13 4 4 8 2 6 17 3 4 2 8 12 19 33 13 21 10 8 21 13 14 8 38 19 8 18 12 9 7 4 16 0 13 13 11 10 12 3 7 5 16 4 9 10 13 -4 6 18 4 27 51 19 7 8 17 20 8 4 5 21 1 54 8 5 11 3 28 17 8 18 1 23 38 5 9 18 28 6 35 6 2 26 5 13 13 16 14 13 13 11 7 13 17 8 3 16 2 9 4 14 7 8 3 10 10 11 6 10 3 10 1 11 12 11 11 7 6 2 15 -2 6 18 7 1 27 15 7 16 15 1 6 8 15 -4 2 14 16 2 5 8 9 12 5 50 19 3 11 1 12 41 2 5 4 22 4 6 11 6 5 7 16 4 3 3 9 5 30 6 12 7 -7 14 3 14 2 9 1 -1 6 9 12 9 4 3 5 5 0 11 21 4 28 8 11 8 -1 7 2 4 5 5 1 20 7 18 19 6 14 9 0 10 17 17 1 18 18 5 4 10 8 3 15 -3 7 -5 4 18 20 -1 5 12 16 6 11 17 8 3 9 8 2 10 11 11 5 15 6 60 3 7 -2 1 17 3 9 6 18 10 1 8 24 8 2 16 4 15 0 3 4 9 15 9 7 7 8 14 7 7 10 36</t>
-  </si>
-  <si>
-    <t>2 3 0 3 1 3 6 -1 1 8 1 5 11 3 14 5 0 21 -2 1 5 0 30 2 4 1 7 1 3 2 5 -1 4 7 1 1 3 8 10 1 3 3 1 2 0 4 4 3 2 2 5 6 11 10 -1 12 23 0 1 0 3 1 9 0 3 4 4 -3 -1 5 4 4 0 -1 -3 11 10 5 2 0 19 19 1 -1 2 3 1 23 3 6 3 -2 2 2 2 4 3 3 2 4 2 9 -1 13 3 4 0 3 5 1 -2 2 3 2 -2 2 9 9 5 5 3 8 3 8 1 0 1 9 7 1 13 9 12 0 0 7 4 7 -1 3 -2 2 4 1 14 5 0 0 0 6 0 0 3 8 -1 2 4 11 6 2 6 1 4 2 3 1 12 5 8 1 0 1 1 2 3 7 5 3 10 3 2 0 2 1 2 0 4 6 12 4 2 4 5 5 2 13 1 2 2 7 2 3 7 7 0 3 3 2 -2 2 7 0 2 2 5 1 10 -1 6 11 1 5 9 11 2 7 2 4 5 -1 5 3 14 56 4 0 14 5 13 -1 4 1 -2 0 0 1 2 -4 4 2 15 2 1 8 4 -2 1 11 11 0 7 12 4 7 2 0 7 3 1 19 11 3 0 1 1 1 5 2 3 3 0 -4 6 3 10 2 1 5 2 -1 15 -1 1 -4 11 12 2 4 3 5 36 3 4 1 4 4 5 3 7 7 10 1 1 -3 -3 0 1 6 4 4 3 1 5 -2 1 2 -1 4 14 4 4 4 -1 6 5 3 15 4 1 2 -2 0 1 1 21 -1 3 1 4 3 5 6 2 7 8 5 1 18 3 6 2 6 17 2 9 5 7 3 2 7 7 20 32 0 7 1 25 5 6 3 6 0 3 0 7 0 0 3 13 -2 2 2 3 0 6 0 2 7 3 2 2 5 1 6 5 13 -2 2 3 4 4 4 9 -1 2 5 2 9 2 2 -2 8 7 3 0 5 4 6 6 2 2 12 3 8 0 2 4 70 3 -1 2 1 6 2 5 0 5 1 10 2 2 2 2 7 14 3 1 3 1 11 3 4 1 0 5 2 11 1 3 11 5 10 3 3 3 2 0 2 1 3 -1 6 10 6 3 3 3 2 5 4 2 3 8 1 3 2 5 8 1 8 5 3 4 6 9 2 9 4 4 4 8 7 1 0 3 2 8 1 5 2 15 4 4 6 6 17 4 5 3 6 6 3 5 12 0 0 14 0 4 3 7 -2 5 3 14 0 10 2 2 7 4 13 2 2 2 3 2 1 0 22 9 15 0 4 3 4 2 2 8 0 8 6 10 5 3 1 3 0 1 9 6 5 2 4 5 0 3 3 0 3 6 13 7 -3 2 -2 2 2 4 7 -4 0 1 3 2 5 2 10 -3 4 2 4 4 9 7 5 9 3 8 12 -1 3 4 6 0 -1 1 8 6 -1 11 6 13 3 0 13 3 7 2 1 14 4 1 0 3 4 21 2 3 7 10 7 6 3 2 5 10 3 3 4 6 2 7 -1 3 4 9 2 2 1 3 -3 2 -1 -1 1 7 4 5 3 2 11 5 7 2 14 18 6 1 27 3 5 12 5 4 13 5 13 12 1 1 6 3 4 3 4 0 2 2 4 11 2 0 6 1 6 2 3 0 2 3 4 1 3 4 4 2 3 2 2 0 14 9 5 5 9 1 1 0 2 17 2 3 3 12 4 -1 6 4 8 2 4 2 6 1 3 2 10 9 0 3 2 0 2 4 3 -1 7 8 4 13 17 2 3 2 0 2 3 10 7 9 12 2 5 0 0 2 1 -2 1 12 3 1</t>
-  </si>
-  <si>
-    <t>11 28 6 2 18 3 10 2 21 17 14 13 9 10 18 1 11 5 11 11 8 17 15 2 28 18 9 -1 14 16 12 2 12 15 4 8 5 9 20 14 11 12 9 1 14 7 14 17 20 14 26 8 14 19 6 5 11 19 19 18 9 20 16 9 16 8 8 8 10 5 7 11 5 4 -2 0 15 -1 4 7 -1 1 2 7 8 7 7 55 6 18 10 14 3 13 4 10 8 5 26 6 21 11 22 11 8 8 9 -7 10 15 19 38 9 4 3 29 10 8 11 20 8 12 2 0 8 7 5 11 6 4 5 10 11 5 18 5 3 13 6 8 22 10 8 9 18 15 13 12 8 16 14 6 10 1 15 16 7 3 6 11 40 59 3 11 30 18 9 19 3 10 3 7 14 3 9 2 8 9 15 12 8 1 9 8 4 16 3 20 25 8 18 21 7 11 11 12 6 0 7 6 14 32 45 8 6 33 7 15 3 6 8 8 68 8 5 8 7 10 11 4 8 8 5 22 19 15 6 1 6 5 16 8 16 5 9 13 7 6 12 9 16 11 1 5 1 10 2 4 13 7 14 4 5 18 16 1 5 6 24 6 6 6 4 12 18 6 21 -6 5 14 1 5 3 10 11 9 5 21 12 28 6 15 10 5 5 15 17 1 8 20 1 7 2 12 24 9 9 7 4 8 10 13 -3 7 41 11 11 3 5 8 17 4 6 17 10 22 9 2 7 18 15 22 5 2 12 18 20 8 22 6 17 8 19 -5 13 13 9 6 11 6 11 20 0 7 25 6 10 4 8 27 7 4 9 3 13 16 9 6 14 9 6 11 7 21 7 10 -3 5 20 7 10 8 3 16 3 10 5 3 5 7 15 13 7 6 1 9 5 25 -4 5 11 6 2 6 17 16 2 10 6 8 20 7 22 13 3 7 5 22 12 4 4 16 11 8 12 0 24 12 7 6 10 7 4 4 8 18 9 0 3 10 7 56 19 2 7 9 5 7 6 3 8 19 3 4 9 20 4 6 12 14 3 4 1 12 3 -1 10 26 4 6 14 4 1 1 28 25 -3 11 9 6 18 2 11 6 5 6 19 15 58 9 21 15 3 16 8 6 8 6 2 49 6 8 -2 11 21 7 15 24 11 30 15 4 8 14 18 22 35 7 30 16 6 28 10 15 9 4 4 -6 9 -4 16 25 4 4 5 18 5 6 13 4 2 9 1 3 5 5 12 21 5 12 6 13 7 5 1 7 7 19 10 3 9 12 7 0 15 5 6 6 7 11 9 17 9 3 11 12 9 18 8 4 9 10 10 15 14 24 2 6 6 20 6 2 8 3 7 8 10 20 7 2 15 9 5 9 20 24 22 11 2 3 12 3 19 9 17 8 3 10 8 15 3 13 7 10 8 6 6 6 7 4 35 7 12 16 3 13 9 17 14 14 18 4 5 8 3 21 5 3 14 0 19 2 0 13 4 21 6 10 8 7 14 11 9 5 11 1 4 12 8 6 -2 6 8 4 8 5 9 2 9 17 4 6 5 3 17 25 11 13 3 2 16 17 15 7 5 11 9 -2 15 12 10 25 7 2 7 5 17 59 7 36 5 11 8 3 1 9 11 4 2 19 4 9 9 6 5 11 3 3 6 7 15 9 3 7 3 10 16 10 1 11 7 9 7</t>
+    <t>-1 7 -5 1 -4 1 -2 -2 -2 5 -4 4 1 4 6 2 7 -1 13 -1 5 18 0 6 3 6 3 2 7 1 -1 3 2 12 6 0 4 0 6 19 3 2 1 23 -3 7 3 16 1 0 3 8 -1 3 4 4 4 2 4 4 10 3 3 1 3 6 5 10 26 4 3 3 0 13 11 9 2 9 3 2 3 8 2 4 0 1 3 2 5 1 2 4 1 7 -6 6 13 1 6 -2 4 14 -3 -3 5 4 49 0 -1 9 5 8 9 -1 1 8 3 4 0 3 7 2 7 1 4 7 7 10 3 2 3 2 -1 80 1 -2 2 4 0 19 -4 1 14 10 3 0 2 -2 2 2 1 9 1 6 11 3 17 6 4 2 2 1 2 6 5 4 -1 15 7 18 5 6 4 2 4 2 5 2 19 11 5 5 8 1 0 12 3 5 5 3 20 1 -2 2 2 6 -2 4 6 17 2 34 2 6 2 4 10 5 4 0 0 1 6 3 3 4 0 8 1 1 10 1 9 6 1 0 4 -3 6 2 -4 5 4 2 1 0 4 5 3 13 2 1 4 -1 2 4 5 18 4 7 2 4 2 5 2 2 -1 4 7 5 -2 3 -1 3 3 4 2 8 2 5 4 1 -1 6 4 5 3 3 0 5 9 2 3 60 13 4 3 13 23 3 4 0 3 1 5 3 6 -1 8 4 1 3 5 3 0 6 0 13 3 16 3 1 9 -1 4 9 2 2 5 -3 7 8 2 0 2 12 4 4 4 3 1 -3 1 14 3 5 6 1 1 9 3 3 3 15 3 8 10 7 23 3 0 1 1 2 11 4 0 3 5 2 2 7 0 5 11 -1 1 4 5 8 5 -2 4 2 -1 1 5 2 3 7 3 5 2 4 2 6 1 4 5 2 15 -2 2 6 41 6 2 7 5 3 0 9 -1 -6 2 -9 7 2 2 5 11 1 1 2 8 7 2 5 12 -3 15 2 -1 3 4 0 4 6 -3 2 4 2 6 11 4 4 1 1 6 -1 0 4 0 1 7 8 1 17 20 1 1 -3 2 4 1 4 2 1 6 6 4 6 5 1 4 3 4 1 14 2 4 1 0 0 -1 4 0 2 4 -2 7 3 4 4 14 9 2 3 0 2 2 0 6 -1 2 4 2 2 5 4 14 -1 7 2 2 0 1 9 3 0 -2 -2 7 11 3 4 2 3 6 2 2 -2 4 19 0 4 9 2 0 2 -3 11 2 2 6 2 14 5 4 0 3 5 4 10 2 2 6 4 16 5 5 6 2 -2 2 6 1 6 20 5 2 3 5 2 0 5 7 5 2 3 8 -3 4 11 12 2 2 8 6 0 1 3 16 1 2 12 0 9 6 5 0 2 14 2 2 1 1 32 6 -1 -3 7 -4 3 4 13 -1 1 4 3 5 0 1 -1 3 3 10 -2 0 1 0 7 0 23 17 1 0 9 13 3 7 8 4 4 2 0 7 -1 2 7 5 1 7 5 7 4 9 5 -3 13 8 5 8 6 8 7 1 6 5 4 5 5 28 4 5 0 5 1 -3 0 6 6 3 5 1 3 2 0 1 5 5 3 4 2 1 6 6 -2 -1 -4 10 3 7 1 6 5 0 5 0 2 2 4 4 2 7</t>
+  </si>
+  <si>
+    <t>13 14 7 1 11 12 41 14 18 5 13 10 4 4 5 5 4 15 10 6 7 7 5 7 5 17 15 24 12 13 -3 7 7 11 20 12 6 4 2 12 10 11 8 22 4 9 4 2 18 9 13 23 0 11 2 9 8 5 5 10 29 4 22 -7 8 17 -2 10 12 4 6 11 -1 8 12 8 9 7 -1 9 15 13 4 33 5 12 17 18 7 9 3 11 21 16 12 16 -3 7 10 39 3 9 14 -1 2 21 8 10 23 5 9 -4 1 9 18 1 11 39 5 7 -4 17 29 9 12 0 5 0 7 11 7 7 12 5 9 2 8 8 18 0 7 11 5 12 14 11 11 12 6 15 4 11 9 1 12 1 6 10 19 6 6 3 50 4 2 7 8 21 8 10 16 8 7 3 7 12 4 8 7 9 6 0 22 4 11 9 12 3 8 4 17 11 1 4 6 27 38 7 16 7 0 40 -3 6 4 53 6 12 9 11 7 10 18 16 5 7 5 44 2 -9 13 -1 8 15 5 9 22 16 14 11 3 7 -2 3 6 8 6 14 13 6 7 11 3 4 10 3 39 7 24 4 22 35 -1 12 9 14 0 7 1 21 8 10 14 13 24 5 9 12 6 10 7 14 13 9 11 11 4 15 16 19 20 8 -5 7 0 9 16 13 11 3 12 14 15 14 16 9 15 21 10 10 4 2 2 18 33 7 16 3 9 21 13 10 42 -6 4 17 1 6 8 37 2 15 20 8 17 14 6 16 16 6 9 15 8 6 12 16 13 4 4 8 2 6 17 3 4 2 8 12 19 33 13 21 10 8 21 13 14 8 38 19 8 18 12 9 7 4 16 0 13 13 11 10 12 3 7 5 16 4 9 10 13 -4 6 18 4 27 51 19 7 8 17 20 8 4 5 21 1 54 8 5 11 3 28 17 8 18 1 23 38 5 9 18 28 6 35 6 2 26 5 13 13 16 14 13 13 11 7 13 17 8 3 16 2 9 4 14 7 8 3 10 10 11 6 10 3 10 1 11 12 11 11 7 6 2 15 -2 6 18 7 1 27 15 7 16 15 1 6 8 15 -4 2 14 16 2 5 8 9 12 5 50 19 3 11 1 12 41 2 5 4 22 4 6 11 6 5 7 16 4 3 3 9 5 30 6 12 7 -7 14 3 14 2 9 1 -1 6 9 12 9 4 3 5 5 0 11 21 4 28 8 11 8 -1 7 2 4 5 5 1 20 7 18 19 6 14 9 0 10 17 17 1 18 18 5 4 10 8 3 15 -3 7 -5 4 18 20 -1 5 12 16 6 11 17 8 3 9 8 2 10 11 11 5 15 6 60 3 7 -2 1 17 3 9 6 18 10 1 8 24 8 2 16 4 15 0 3 4 9 15 9 7 7 8 14 7 7 10 36 -4 8 8 8 -2 7 6 8 2 9 11 5 2 0 4 5 9 6 4 8 2</t>
+  </si>
+  <si>
+    <t>2 3 0 3 1 3 6 -1 1 8 1 5 11 3 14 5 0 21 -2 1 5 0 30 2 4 1 7 1 3 2 5 -1 4 7 1 1 3 8 10 1 3 3 1 2 0 4 4 3 2 2 5 6 11 10 -1 12 23 0 1 0 3 1 9 0 3 4 4 -3 -1 5 4 4 0 -1 -3 11 10 5 2 0 19 19 1 -1 2 3 1 23 3 6 3 -2 2 2 2 4 3 3 2 4 2 9 -1 13 3 4 0 3 5 1 -2 2 3 2 -2 2 9 9 5 5 3 8 3 8 1 0 1 9 7 1 13 9 12 0 0 7 4 7 -1 3 -2 2 4 1 14 5 0 0 0 6 0 0 3 8 -1 2 4 11 6 2 6 1 4 2 3 1 12 5 8 1 0 1 1 2 3 7 5 3 10 3 2 0 2 1 2 0 4 6 12 4 2 4 5 5 2 13 1 2 2 7 2 3 7 7 0 3 3 2 -2 2 7 0 2 2 5 1 10 -1 6 11 1 5 9 11 2 7 2 4 5 -1 5 3 14 56 4 0 14 5 13 -1 4 1 -2 0 0 1 2 -4 4 2 15 2 1 8 4 -2 1 11 11 0 7 12 4 7 2 0 7 3 1 19 11 3 0 1 1 1 5 2 3 3 0 -4 6 3 10 2 1 5 2 -1 15 -1 1 -4 11 12 2 4 3 5 36 3 4 1 4 4 5 3 7 7 10 1 1 -3 -3 0 1 6 4 4 3 1 5 -2 1 2 -1 4 14 4 4 4 -1 6 5 3 15 4 1 2 -2 0 1 1 21 -1 3 1 4 3 5 6 2 7 8 5 1 18 3 6 2 6 17 2 9 5 7 3 2 7 7 20 32 0 7 1 25 5 6 3 6 0 3 0 7 0 0 3 13 -2 2 2 3 0 6 0 2 7 3 2 2 5 1 6 5 13 -2 2 3 4 4 4 9 -1 2 5 2 9 2 2 -2 8 7 3 0 5 4 6 6 2 2 12 3 8 0 2 4 70 3 -1 2 1 6 2 5 0 5 1 10 2 2 2 2 7 14 3 1 3 1 11 3 4 1 0 5 2 11 1 3 11 5 10 3 3 3 2 0 2 1 3 -1 6 10 6 3 3 3 2 5 4 2 3 8 1 3 2 5 8 1 8 5 3 4 6 9 2 9 4 4 4 8 7 1 0 3 2 8 1 5 2 15 4 4 6 6 17 4 5 3 6 6 3 5 12 0 0 14 0 4 3 7 -2 5 3 14 0 10 2 2 7 4 13 2 2 2 3 2 1 0 22 9 15 0 4 3 4 2 2 8 0 8 6 10 5 3 1 3 0 1 9 6 5 2 4 5 0 3 3 0 3 6 13 7 -3 2 -2 2 2 4 7 -4 0 1 3 2 5 2 10 -3 4 2 4 4 9 7 5 9 3 8 12 -1 3 4 6 0 -1 1 8 6 -1 11 6 13 3 0 13 3 7 2 1 14 4 1 0 3 4 21 2 3 7 10 7 6 3 2 5 10 3 3 4 6 2 7 -1 3 4 9 2 2 1 3 -3 2 -1 -1 1 7 4 5 3 2 11 5 7 2 14 18 6 1 27 3 5 12 5 4 13 5 13 12 1 1 6 3 4 3 4 0 2 2 4 11 2 0 6 1 6 2 3 0 2 3 4 1 3 4 4 2 3 2 2 0 14 9 5 5 9 1 1 0 2 17 2 3 3 12 4 -1 6 4 8 2 4 2 6 1 3 2 10 9 0 3 2 0 2 4 3 -1 7 8 4 13 17 2 3 2 0 2 3 10 7 9 12 2 5 0 0 2 1 -2 1 12 3 1 11 0 3 15 5 0 13 4 1 1 2 5 5 2 3 9 1 4 4 6 6 6 4 5 3 3 3 6 0</t>
+  </si>
+  <si>
+    <t>11 28 6 2 18 3 10 2 21 17 14 13 9 10 18 1 11 5 11 11 8 17 15 2 28 18 9 -1 14 16 12 2 12 15 4 8 5 9 20 14 11 12 9 1 14 7 14 17 20 14 26 8 14 19 6 5 11 19 19 18 9 20 16 9 16 8 8 8 10 5 7 11 5 4 -2 0 15 -1 4 7 -1 1 2 7 8 7 7 55 6 18 10 14 3 13 4 10 8 5 26 6 21 11 22 11 8 8 9 -7 10 15 19 38 9 4 3 29 10 8 11 20 8 12 2 0 8 7 5 11 6 4 5 10 11 5 18 5 3 13 6 8 22 10 8 9 18 15 13 12 8 16 14 6 10 1 15 16 7 3 6 11 40 59 3 11 30 18 9 19 3 10 3 7 14 3 9 2 8 9 15 12 8 1 9 8 4 16 3 20 25 8 18 21 7 11 11 12 6 0 7 6 14 32 45 8 6 33 7 15 3 6 8 8 68 8 5 8 7 10 11 4 8 8 5 22 19 15 6 1 6 5 16 8 16 5 9 13 7 6 12 9 16 11 1 5 1 10 2 4 13 7 14 4 5 18 16 1 5 6 24 6 6 6 4 12 18 6 21 -6 5 14 1 5 3 10 11 9 5 21 12 28 6 15 10 5 5 15 17 1 8 20 1 7 2 12 24 9 9 7 4 8 10 13 -3 7 41 11 11 3 5 8 17 4 6 17 10 22 9 2 7 18 15 22 5 2 12 18 20 8 22 6 17 8 19 -5 13 13 9 6 11 6 11 20 0 7 25 6 10 4 8 27 7 4 9 3 13 16 9 6 14 9 6 11 7 21 7 10 -3 5 20 7 10 8 3 16 3 10 5 3 5 7 15 13 7 6 1 9 5 25 -4 5 11 6 2 6 17 16 2 10 6 8 20 7 22 13 3 7 5 22 12 4 4 16 11 8 12 0 24 12 7 6 10 7 4 4 8 18 9 0 3 10 7 56 19 2 7 9 5 7 6 3 8 19 3 4 9 20 4 6 12 14 3 4 1 12 3 -1 10 26 4 6 14 4 1 1 28 25 -3 11 9 6 18 2 11 6 5 6 19 15 58 9 21 15 3 16 8 6 8 6 2 49 6 8 -2 11 21 7 15 24 11 30 15 4 8 14 18 22 35 7 30 16 6 28 10 15 9 4 4 -6 9 -4 16 25 4 4 5 18 5 6 13 4 2 9 1 3 5 5 12 21 5 12 6 13 7 5 1 7 7 19 10 3 9 12 7 0 15 5 6 6 7 11 9 17 9 3 11 12 9 18 8 4 9 10 10 15 14 24 2 6 6 20 6 2 8 3 7 8 10 20 7 2 15 9 5 9 20 24 22 11 2 3 12 3 19 9 17 8 3 10 8 15 3 13 7 10 8 6 6 6 7 4 35 7 12 16 3 13 9 17 14 14 18 4 5 8 3 21 5 3 14 0 19 2 0 13 4 21 6 10 8 7 14 11 9 5 11 1 4 12 8 6 -2 6 8 4 8 5 9 2 9 17 4 6 5 3 17 25 11 13 3 2 16 17 15 7 5 11 9 -2 15 12 10 25 7 2 7 5 17 59 7 36 5 11 8 3 1 9 11 4 2 19 4 9 9 6 5 11 3 3 6 7 15 9 3 7 3 10 16 10 1 11 7 9 7 6 2 3 23 13 46 1 9 1 6 39 4 3 16 10 5</t>
   </si>
   <si>
     <t>1N11+</t>
@@ -161,22 +161,22 @@
     <t>RM</t>
   </si>
   <si>
-    <t>64 70 66 71 51 58 70 57 61 55 60 56 56 51 65 68 47 65 59 60 66 64 62 59 68 48 50 46 49 60 50 63 65 64 51 60 63 47 63 55 65 65 63 62 65 64 68 56 53 68 67 58 65 47 54 62 56 52 61 65 64 62 56 64 51 52 63 61 57 64 58 71 62 60</t>
-  </si>
-  <si>
-    <t>33 23 30 30 10 14 41 13 15 22 23 4 21 16 22 28 13 25 26 21 24 20 31 22 3 13 23 13 12 25 22 23 18 22 11 16 16 23 21 18 22 22 21 27 16 23 24 10 16 16 24 18 19 7 16 13 10 14 26 32 22 20 18 13 15 13 15 26 15 17 0 29 21 29</t>
-  </si>
-  <si>
-    <t>0 22 34 18 0 18 16 27 14 14 25 24 12 28 23 15 44 23 31 26 17 18 17 8 23 19 15 25 25 20 48 19 24 23 19 18 22 18 23 28 38 20 15 33 21 30 22 23 37 22 11 23 12 19 18 18 22 17 17 15</t>
-  </si>
-  <si>
-    <t>41 32 32 53 62 53 59 54 50 49 44 34 39 55 49 24 46 43 40 56 48 37 41 38 33 35 38 49 23 45 41 71 38 56 48 52 37 50 33 61 46 49 41 40 43 42 54 54 48 51 52 34 55 42 34 35 54 45 42 51 41 38 48 48 43 58 61 28 42 53 55 49 41 34 50 43 51 33 30 40 50 57 57 33 63 36 44 48 50 51 45 51 51 34 34 42 58 46 52 39 51 51 46 33 36 42 39 36 41 45 46 44 36 50 46 51 63 18 50 51</t>
-  </si>
-  <si>
-    <t>0 1 0 12 0 0 0 0 7 0 9 0 0 3 0 0 2 0 0 11 0 0 2 0 0 0 0 0 0 0 12 0 0 0 0 15 0 0 0 29 5 13 0 0 0 0 24 6 8 0 17 0 8 18 0 6 17 19 0 0 0 0 0 -2 0 13 11 0 0 0 15 9 0 0 0 9 0 0 0 17 0 8 28 0 11 0 10 0 0 4 0 0 0 0 0 0 0 5 0 0 9 0 4 0 2 3 9 0 0 7 0 0 0 0 0 0 0 0 0 0</t>
-  </si>
-  <si>
-    <t>8 20 11 0 11 0 0 15 0 9 0 6 0 0 0 14 5 0 0 0 0 11 0 6 0 1 0 10 16 20 0 8 0 0 0 0 0 0 0 0 0 0 0 0 0 12 0 0 6 0 0 20 0 19 0 0 2 11 8 0 0 0 0 0 0 19 17 0 26 0 7 0 0 0 0 0 0 2 12 6 0 4 0 0 0 12 14 0 0 0 9 0 0 0 15 11 0 -4 0 8 0 0 0 0 0 0</t>
+    <t>64 70 66 71 51 58 70 57 61 55 60 56 56 51 65 68 47 65 59 60 66 64 62 59 68 48 50 46 49 60 50 63 65 64 51 60 63 47 63 55 65 65 63 62 65 64 68 56 53 68 67 58 65 47 54 62 56 52 61 65 64 62 56 64 51 52 63 61 57 64 58 71 62 60 65 51</t>
+  </si>
+  <si>
+    <t>33 23 30 30 10 14 41 13 15 22 23 4 21 16 22 28 13 25 26 21 24 20 31 22 3 13 23 13 12 25 22 23 18 22 11 16 16 23 21 18 22 22 21 27 16 23 24 10 16 16 24 18 19 7 16 13 10 14 26 32 22 20 18 13 15 13 15 26 15 17 0 29 21 29 20 10</t>
+  </si>
+  <si>
+    <t>0 22 34 18 0 18 16 27 14 14 25 24 12 28 23 15 44 23 31 26 17 18 17 8 23 19 15 25 25 20 48 19 24 23 19 18 22 18 23 28 38 20 15 33 21 30 22 23 37 22 11 23 12 19 18 18 22 17 17 15 17 21</t>
+  </si>
+  <si>
+    <t>41 32 32 53 62 53 59 54 50 49 44 34 39 55 49 24 46 43 40 56 48 37 41 38 33 35 38 49 23 45 41 71 38 56 48 52 37 50 33 61 46 49 41 40 43 42 54 54 48 51 52 34 55 42 34 35 54 45 42 51 41 38 48 48 43 58 61 28 42 53 55 49 41 34 50 43 51 33 30 40 50 57 57 33 63 36 44 48 50 51 45 51 51 34 34 42 58 46 52 39 51 51 46 33 36 42 39 36 41 45 46 44 36 50 46 51 63 18 50 51 47 48 28 38 33 33 31 36</t>
+  </si>
+  <si>
+    <t>0 1 0 12 0 0 0 0 7 0 9 0 0 3 0 0 2 0 0 11 0 0 2 0 0 0 0 0 0 0 12 0 0 0 0 15 0 0 0 29 5 13 0 0 0 0 24 6 8 0 17 0 8 18 0 6 17 19 0 0 0 0 0 -2 0 13 11 0 0 0 15 9 0 0 0 9 0 0 0 17 0 8 28 0 11 0 10 0 0 4 0 0 0 0 0 0 0 5 0 0 9 0 4 0 2 3 9 0 0 7 0 0 0 0 0 0 0 0 0 0 -4 0 0 14 0 39 0 1</t>
+  </si>
+  <si>
+    <t>8 20 11 0 11 0 0 15 0 9 0 6 0 0 0 14 5 0 0 0 0 11 0 6 0 1 0 10 16 20 0 8 0 0 0 0 0 0 0 0 0 0 0 0 0 12 0 0 6 0 0 20 0 19 0 0 2 11 8 0 0 0 0 0 0 19 17 0 26 0 7 0 0 0 0 0 0 2 12 6 0 4 0 0 0 12 14 0 0 0 9 0 0 0 15 11 0 -4 0 8 0 0 0 0 0 0 0 3 13 0</t>
   </si>
   <si>
     <t>INT</t>
@@ -668,28 +668,28 @@
         <v>3</v>
       </c>
       <c r="C2">
-        <v>337</v>
+        <v>350</v>
       </c>
       <c r="D2">
         <v>18</v>
       </c>
       <c r="E2">
+        <v>17</v>
+      </c>
+      <c r="F2">
+        <v>128</v>
+      </c>
+      <c r="G2">
+        <v>86</v>
+      </c>
+      <c r="H2">
         <v>15</v>
       </c>
-      <c r="F2">
-        <v>125</v>
-      </c>
-      <c r="G2">
-        <v>84</v>
-      </c>
-      <c r="H2">
-        <v>13</v>
-      </c>
       <c r="I2">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="J2">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="K2" t="s">
         <v>25</v>
@@ -701,13 +701,13 @@
         <v>302</v>
       </c>
       <c r="N2">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="O2">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="P2">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="Q2">
         <v>878</v>
@@ -718,40 +718,40 @@
         <v>18</v>
       </c>
       <c r="B3">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C3">
-        <v>340</v>
+        <v>352</v>
       </c>
       <c r="D3">
         <v>8</v>
       </c>
       <c r="E3">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="F3">
-        <v>198</v>
+        <v>208</v>
       </c>
       <c r="G3">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="H3">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="I3">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="J3">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="K3" t="s">
         <v>26</v>
       </c>
       <c r="L3">
-        <v>533</v>
+        <v>577</v>
       </c>
       <c r="M3">
-        <v>326</v>
+        <v>349</v>
       </c>
       <c r="N3">
         <v>38</v>
@@ -763,7 +763,7 @@
         <v>17</v>
       </c>
       <c r="Q3">
-        <v>925</v>
+        <v>1005</v>
       </c>
     </row>
   </sheetData>
@@ -943,7 +943,7 @@
         <v>7</v>
       </c>
       <c r="C2">
-        <v>383</v>
+        <v>399</v>
       </c>
       <c r="D2">
         <v>23</v>
@@ -952,19 +952,19 @@
         <v>15</v>
       </c>
       <c r="F2">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="G2">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="H2">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I2">
         <v>13</v>
       </c>
       <c r="J2">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="K2" t="s">
         <v>25</v>
@@ -976,10 +976,10 @@
         <v>372</v>
       </c>
       <c r="N2">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="O2">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="P2">
         <v>24</v>
@@ -993,40 +993,40 @@
         <v>18</v>
       </c>
       <c r="B3">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C3">
-        <v>346</v>
+        <v>355</v>
       </c>
       <c r="D3">
         <v>7</v>
       </c>
       <c r="E3">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="F3">
-        <v>219</v>
+        <v>225</v>
       </c>
       <c r="G3">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="H3">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="I3">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="J3">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="K3" t="s">
         <v>26</v>
       </c>
       <c r="L3">
-        <v>544</v>
+        <v>572</v>
       </c>
       <c r="M3">
-        <v>372</v>
+        <v>388</v>
       </c>
       <c r="N3">
         <v>38</v>
@@ -1038,7 +1038,7 @@
         <v>17</v>
       </c>
       <c r="Q3">
-        <v>978</v>
+        <v>1041</v>
       </c>
     </row>
   </sheetData>
@@ -1215,22 +1215,22 @@
         <v>41</v>
       </c>
       <c r="B2">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="C2" t="s">
         <v>41</v>
       </c>
       <c r="D2">
-        <v>120</v>
+        <v>128</v>
       </c>
       <c r="E2" t="s">
         <v>17</v>
       </c>
       <c r="F2">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="G2">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="H2">
         <v>9</v>
@@ -1251,10 +1251,10 @@
         <v>92</v>
       </c>
       <c r="N2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="O2">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="P2">
         <v>0</v>
@@ -1362,16 +1362,16 @@
         <v>26</v>
       </c>
       <c r="B3">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C3">
         <v>14</v>
       </c>
       <c r="D3">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E3">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -1403,13 +1403,13 @@
         <v>56</v>
       </c>
       <c r="B2">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C2" t="s">
         <v>60</v>
       </c>
       <c r="D2">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:4">

--- a/Base/Teams/Giants/Team Data.xlsx
+++ b/Base/Teams/Giants/Team Data.xlsx
@@ -35,16 +35,16 @@
     <t>P</t>
   </si>
   <si>
-    <t>-1 7 -5 1 -4 1 -2 -2 -2 5 -4 4 1 4 6 2 7 -1 13 -1 5 18 0 6 3 6 3 2 7 1 -1 3 2 12 6 0 4 0 6 19 3 2 1 23 -3 7 3 16 1 0 3 8 -1 3 4 4 4 2 4 4 10 3 3 1 3 6 5 10 26 4 3 3 0 13 11 9 2 9 3 2 3 8 2 4 0 1 3 2 5 1 2 4 1 7 -6 6 13 1 6 -2 4 14 -3 -3 5 4 49 0 -1 9 5 8 9 -1 1 8 3 4 0 3 7 2 7 1 4 7 7 10 3 2 3 2 -1 80 1 -2 2 4 0 19 -4 1 14 10 3 0 2 -2 2 2 1 9 1 6 11 3 17 6 4 2 2 1 2 6 5 4 -1 15 7 18 5 6 4 2 4 2 5 2 19 11 5 5 8 1 0 12 3 5 5 3 20 1 -2 2 2 6 -2 4 6 17 2 34 2 6 2 4 10 5 4 0 0 1 6 3 3 4 0 8 1 1 10 1 9 6 1 0 4 -3 6 2 -4 5 4 2 1 0 4 5 3 13 2 1 4 -1 2 4 5 18 4 7 2 4 2 5 2 2 -1 4 7 5 -2 3 -1 3 3 4 2 8 2 5 4 1 -1 6 4 5 3 3 0 5 9 2 3 60 13 4 3 13 23 3 4 0 3 1 5 3 6 -1 8 4 1 3 5 3 0 6 0 13 3 16 3 1 9 -1 4 9 2 2 5 -3 7 8 2 0 2 12 4 4 4 3 1 -3 1 14 3 5 6 1 1 9 3 3 3 15 3 8 10 7 23 3 0 1 1 2 11 4 0 3 5 2 2 7 0 5 11 -1 1 4 5 8 5 -2 4 2 -1 1 5 2 3 7 3 5 2 4 2 6 1 4 5 2 15 -2 2 6 41 6 2 7 5 3 0 9 -1 -6 2 -9 7 2 2 5 11 1 1 2 8 7 2 5 12 -3 15 2 -1 3 4 0 4 6 -3 2 4 2 6 11 4 4 1 1 6 -1 0 4 0 1 7 8 1 17 20 1 1 -3 2 4 1 4 2 1 6 6 4 6 5 1 4 3 4 1 14 2 4 1 0 0 -1 4 0 2 4 -2 7 3 4 4 14 9 2 3 0 2 2 0 6 -1 2 4 2 2 5 4 14 -1 7 2 2 0 1 9 3 0 -2 -2 7 11 3 4 2 3 6 2 2 -2 4 19 0 4 9 2 0 2 -3 11 2 2 6 2 14 5 4 0 3 5 4 10 2 2 6 4 16 5 5 6 2 -2 2 6 1 6 20 5 2 3 5 2 0 5 7 5 2 3 8 -3 4 11 12 2 2 8 6 0 1 3 16 1 2 12 0 9 6 5 0 2 14 2 2 1 1 32 6 -1 -3 7 -4 3 4 13 -1 1 4 3 5 0 1 -1 3 3 10 -2 0 1 0 7 0 23 17 1 0 9 13 3 7 8 4 4 2 0 7 -1 2 7 5 1 7 5 7 4 9 5 -3 13 8 5 8 6 8 7 1 6 5 4 5 5 28 4 5 0 5 1 -3 0 6 6 3 5 1 3 2 0 1 5 5 3 4 2 1 6 6 -2 -1 -4 10 3 7 1 6 5 0 5 0 2 2 4 4 2 7</t>
-  </si>
-  <si>
-    <t>13 14 7 1 11 12 41 14 18 5 13 10 4 4 5 5 4 15 10 6 7 7 5 7 5 17 15 24 12 13 -3 7 7 11 20 12 6 4 2 12 10 11 8 22 4 9 4 2 18 9 13 23 0 11 2 9 8 5 5 10 29 4 22 -7 8 17 -2 10 12 4 6 11 -1 8 12 8 9 7 -1 9 15 13 4 33 5 12 17 18 7 9 3 11 21 16 12 16 -3 7 10 39 3 9 14 -1 2 21 8 10 23 5 9 -4 1 9 18 1 11 39 5 7 -4 17 29 9 12 0 5 0 7 11 7 7 12 5 9 2 8 8 18 0 7 11 5 12 14 11 11 12 6 15 4 11 9 1 12 1 6 10 19 6 6 3 50 4 2 7 8 21 8 10 16 8 7 3 7 12 4 8 7 9 6 0 22 4 11 9 12 3 8 4 17 11 1 4 6 27 38 7 16 7 0 40 -3 6 4 53 6 12 9 11 7 10 18 16 5 7 5 44 2 -9 13 -1 8 15 5 9 22 16 14 11 3 7 -2 3 6 8 6 14 13 6 7 11 3 4 10 3 39 7 24 4 22 35 -1 12 9 14 0 7 1 21 8 10 14 13 24 5 9 12 6 10 7 14 13 9 11 11 4 15 16 19 20 8 -5 7 0 9 16 13 11 3 12 14 15 14 16 9 15 21 10 10 4 2 2 18 33 7 16 3 9 21 13 10 42 -6 4 17 1 6 8 37 2 15 20 8 17 14 6 16 16 6 9 15 8 6 12 16 13 4 4 8 2 6 17 3 4 2 8 12 19 33 13 21 10 8 21 13 14 8 38 19 8 18 12 9 7 4 16 0 13 13 11 10 12 3 7 5 16 4 9 10 13 -4 6 18 4 27 51 19 7 8 17 20 8 4 5 21 1 54 8 5 11 3 28 17 8 18 1 23 38 5 9 18 28 6 35 6 2 26 5 13 13 16 14 13 13 11 7 13 17 8 3 16 2 9 4 14 7 8 3 10 10 11 6 10 3 10 1 11 12 11 11 7 6 2 15 -2 6 18 7 1 27 15 7 16 15 1 6 8 15 -4 2 14 16 2 5 8 9 12 5 50 19 3 11 1 12 41 2 5 4 22 4 6 11 6 5 7 16 4 3 3 9 5 30 6 12 7 -7 14 3 14 2 9 1 -1 6 9 12 9 4 3 5 5 0 11 21 4 28 8 11 8 -1 7 2 4 5 5 1 20 7 18 19 6 14 9 0 10 17 17 1 18 18 5 4 10 8 3 15 -3 7 -5 4 18 20 -1 5 12 16 6 11 17 8 3 9 8 2 10 11 11 5 15 6 60 3 7 -2 1 17 3 9 6 18 10 1 8 24 8 2 16 4 15 0 3 4 9 15 9 7 7 8 14 7 7 10 36 -4 8 8 8 -2 7 6 8 2 9 11 5 2 0 4 5 9 6 4 8 2</t>
-  </si>
-  <si>
-    <t>2 3 0 3 1 3 6 -1 1 8 1 5 11 3 14 5 0 21 -2 1 5 0 30 2 4 1 7 1 3 2 5 -1 4 7 1 1 3 8 10 1 3 3 1 2 0 4 4 3 2 2 5 6 11 10 -1 12 23 0 1 0 3 1 9 0 3 4 4 -3 -1 5 4 4 0 -1 -3 11 10 5 2 0 19 19 1 -1 2 3 1 23 3 6 3 -2 2 2 2 4 3 3 2 4 2 9 -1 13 3 4 0 3 5 1 -2 2 3 2 -2 2 9 9 5 5 3 8 3 8 1 0 1 9 7 1 13 9 12 0 0 7 4 7 -1 3 -2 2 4 1 14 5 0 0 0 6 0 0 3 8 -1 2 4 11 6 2 6 1 4 2 3 1 12 5 8 1 0 1 1 2 3 7 5 3 10 3 2 0 2 1 2 0 4 6 12 4 2 4 5 5 2 13 1 2 2 7 2 3 7 7 0 3 3 2 -2 2 7 0 2 2 5 1 10 -1 6 11 1 5 9 11 2 7 2 4 5 -1 5 3 14 56 4 0 14 5 13 -1 4 1 -2 0 0 1 2 -4 4 2 15 2 1 8 4 -2 1 11 11 0 7 12 4 7 2 0 7 3 1 19 11 3 0 1 1 1 5 2 3 3 0 -4 6 3 10 2 1 5 2 -1 15 -1 1 -4 11 12 2 4 3 5 36 3 4 1 4 4 5 3 7 7 10 1 1 -3 -3 0 1 6 4 4 3 1 5 -2 1 2 -1 4 14 4 4 4 -1 6 5 3 15 4 1 2 -2 0 1 1 21 -1 3 1 4 3 5 6 2 7 8 5 1 18 3 6 2 6 17 2 9 5 7 3 2 7 7 20 32 0 7 1 25 5 6 3 6 0 3 0 7 0 0 3 13 -2 2 2 3 0 6 0 2 7 3 2 2 5 1 6 5 13 -2 2 3 4 4 4 9 -1 2 5 2 9 2 2 -2 8 7 3 0 5 4 6 6 2 2 12 3 8 0 2 4 70 3 -1 2 1 6 2 5 0 5 1 10 2 2 2 2 7 14 3 1 3 1 11 3 4 1 0 5 2 11 1 3 11 5 10 3 3 3 2 0 2 1 3 -1 6 10 6 3 3 3 2 5 4 2 3 8 1 3 2 5 8 1 8 5 3 4 6 9 2 9 4 4 4 8 7 1 0 3 2 8 1 5 2 15 4 4 6 6 17 4 5 3 6 6 3 5 12 0 0 14 0 4 3 7 -2 5 3 14 0 10 2 2 7 4 13 2 2 2 3 2 1 0 22 9 15 0 4 3 4 2 2 8 0 8 6 10 5 3 1 3 0 1 9 6 5 2 4 5 0 3 3 0 3 6 13 7 -3 2 -2 2 2 4 7 -4 0 1 3 2 5 2 10 -3 4 2 4 4 9 7 5 9 3 8 12 -1 3 4 6 0 -1 1 8 6 -1 11 6 13 3 0 13 3 7 2 1 14 4 1 0 3 4 21 2 3 7 10 7 6 3 2 5 10 3 3 4 6 2 7 -1 3 4 9 2 2 1 3 -3 2 -1 -1 1 7 4 5 3 2 11 5 7 2 14 18 6 1 27 3 5 12 5 4 13 5 13 12 1 1 6 3 4 3 4 0 2 2 4 11 2 0 6 1 6 2 3 0 2 3 4 1 3 4 4 2 3 2 2 0 14 9 5 5 9 1 1 0 2 17 2 3 3 12 4 -1 6 4 8 2 4 2 6 1 3 2 10 9 0 3 2 0 2 4 3 -1 7 8 4 13 17 2 3 2 0 2 3 10 7 9 12 2 5 0 0 2 1 -2 1 12 3 1 11 0 3 15 5 0 13 4 1 1 2 5 5 2 3 9 1 4 4 6 6 6 4 5 3 3 3 6 0</t>
-  </si>
-  <si>
-    <t>11 28 6 2 18 3 10 2 21 17 14 13 9 10 18 1 11 5 11 11 8 17 15 2 28 18 9 -1 14 16 12 2 12 15 4 8 5 9 20 14 11 12 9 1 14 7 14 17 20 14 26 8 14 19 6 5 11 19 19 18 9 20 16 9 16 8 8 8 10 5 7 11 5 4 -2 0 15 -1 4 7 -1 1 2 7 8 7 7 55 6 18 10 14 3 13 4 10 8 5 26 6 21 11 22 11 8 8 9 -7 10 15 19 38 9 4 3 29 10 8 11 20 8 12 2 0 8 7 5 11 6 4 5 10 11 5 18 5 3 13 6 8 22 10 8 9 18 15 13 12 8 16 14 6 10 1 15 16 7 3 6 11 40 59 3 11 30 18 9 19 3 10 3 7 14 3 9 2 8 9 15 12 8 1 9 8 4 16 3 20 25 8 18 21 7 11 11 12 6 0 7 6 14 32 45 8 6 33 7 15 3 6 8 8 68 8 5 8 7 10 11 4 8 8 5 22 19 15 6 1 6 5 16 8 16 5 9 13 7 6 12 9 16 11 1 5 1 10 2 4 13 7 14 4 5 18 16 1 5 6 24 6 6 6 4 12 18 6 21 -6 5 14 1 5 3 10 11 9 5 21 12 28 6 15 10 5 5 15 17 1 8 20 1 7 2 12 24 9 9 7 4 8 10 13 -3 7 41 11 11 3 5 8 17 4 6 17 10 22 9 2 7 18 15 22 5 2 12 18 20 8 22 6 17 8 19 -5 13 13 9 6 11 6 11 20 0 7 25 6 10 4 8 27 7 4 9 3 13 16 9 6 14 9 6 11 7 21 7 10 -3 5 20 7 10 8 3 16 3 10 5 3 5 7 15 13 7 6 1 9 5 25 -4 5 11 6 2 6 17 16 2 10 6 8 20 7 22 13 3 7 5 22 12 4 4 16 11 8 12 0 24 12 7 6 10 7 4 4 8 18 9 0 3 10 7 56 19 2 7 9 5 7 6 3 8 19 3 4 9 20 4 6 12 14 3 4 1 12 3 -1 10 26 4 6 14 4 1 1 28 25 -3 11 9 6 18 2 11 6 5 6 19 15 58 9 21 15 3 16 8 6 8 6 2 49 6 8 -2 11 21 7 15 24 11 30 15 4 8 14 18 22 35 7 30 16 6 28 10 15 9 4 4 -6 9 -4 16 25 4 4 5 18 5 6 13 4 2 9 1 3 5 5 12 21 5 12 6 13 7 5 1 7 7 19 10 3 9 12 7 0 15 5 6 6 7 11 9 17 9 3 11 12 9 18 8 4 9 10 10 15 14 24 2 6 6 20 6 2 8 3 7 8 10 20 7 2 15 9 5 9 20 24 22 11 2 3 12 3 19 9 17 8 3 10 8 15 3 13 7 10 8 6 6 6 7 4 35 7 12 16 3 13 9 17 14 14 18 4 5 8 3 21 5 3 14 0 19 2 0 13 4 21 6 10 8 7 14 11 9 5 11 1 4 12 8 6 -2 6 8 4 8 5 9 2 9 17 4 6 5 3 17 25 11 13 3 2 16 17 15 7 5 11 9 -2 15 12 10 25 7 2 7 5 17 59 7 36 5 11 8 3 1 9 11 4 2 19 4 9 9 6 5 11 3 3 6 7 15 9 3 7 3 10 16 10 1 11 7 9 7 6 2 3 23 13 46 1 9 1 6 39 4 3 16 10 5</t>
+    <t>-1 7 -5 1 -4 1 -2 -2 -2 5 -4 4 1 4 6 2 7 -1 13 -1 5 18 0 6 3 6 3 2 7 1 -1 3 2 12 6 0 4 0 6 19 3 2 1 23 -3 7 3 16 1 0 3 8 -1 3 4 4 4 2 4 4 10 3 3 1 3 6 5 10 26 4 3 3 0 13 11 9 2 9 3 2 3 8 2 4 0 1 3 2 5 1 2 4 1 7 -6 6 13 1 6 -2 4 14 -3 -3 5 4 49 0 -1 9 5 8 9 -1 1 8 3 4 0 3 7 2 7 1 4 7 7 10 3 2 3 2 -1 80 1 -2 2 4 0 19 -4 1 14 10 3 0 2 -2 2 2 1 9 1 6 11 3 17 6 4 2 2 1 2 6 5 4 -1 15 7 18 5 6 4 2 4 2 5 2 19 11 5 5 8 1 0 12 3 5 5 3 20 1 -2 2 2 6 -2 4 6 17 2 34 2 6 2 4 10 5 4 0 0 1 6 3 3 4 0 8 1 1 10 1 9 6 1 0 4 -3 6 2 -4 5 4 2 1 0 4 5 3 13 2 1 4 -1 2 4 5 18 4 7 2 4 2 5 2 2 -1 4 7 5 -2 3 -1 3 3 4 2 8 2 5 4 1 -1 6 4 5 3 3 0 5 9 2 3 60 13 4 3 13 23 3 4 0 3 1 5 3 6 -1 8 4 1 3 5 3 0 6 0 13 3 16 3 1 9 -1 4 9 2 2 5 -3 7 8 2 0 2 12 4 4 4 3 1 -3 1 14 3 5 6 1 1 9 3 3 3 15 3 8 10 7 23 3 0 1 1 2 11 4 0 3 5 2 2 7 0 5 11 -1 1 4 5 8 5 -2 4 2 -1 1 5 2 3 7 3 5 2 4 2 6 1 4 5 2 15 -2 2 6 41 6 2 7 5 3 0 9 -1 -6 2 -9 7 2 2 5 11 1 1 2 8 7 2 5 12 -3 15 2 -1 3 4 0 4 6 -3 2 4 2 6 11 4 4 1 1 6 -1 0 4 0 1 7 8 1 17 20 1 1 -3 2 4 1 4 2 1 6 6 4 6 5 1 4 3 4 1 14 2 4 1 0 0 -1 4 0 2 4 -2 7 3 4 4 14 9 2 3 0 2 2 0 6 -1 2 4 2 2 5 4 14 -1 7 2 2 0 1 9 3 0 -2 -2 7 11 3 4 2 3 6 2 2 -2 4 19 0 4 9 2 0 2 -3 11 2 2 6 2 14 5 4 0 3 5 4 10 2 2 6 4 16 5 5 6 2 -2 2 6 1 6 20 5 2 3 5 2 0 5 7 5 2 3 8 -3 4 11 12 2 2 8 6 0 1 3 16 1 2 12 0 9 6 5 0 2 14 2 2 1 1 32 6 -1 -3 7 -4 3 4 13 -1 1 4 3 5 0 1 -1 3 3 10 -2 0 1 0 7 0 23 17 1 0 9 13 3 7 8 4 4 2 0 7 -1 2 7 5 1 7 5 7 4 9 5 -3 13 8 5 8 6 8 7 1 6 5 4 5 5 28 4 5 0 5 1 -3 0 6 6 3 5 1 3 2 0 1 5 5 3 4 2 1 6 6 -2 -1 -4 10 3 7 1 6 5 0 5 0 2 2 4 4 2 7 8 4 6 2 6 5 4 -1 8 5 1 2 10 8 2 3 3 5 2 -2 4 -3 -1 9 6 4 1 8 3 3 1 1 13 5 7 5 1 3 9 1</t>
+  </si>
+  <si>
+    <t>13 14 7 1 11 12 41 14 18 5 13 10 4 4 5 5 4 15 10 6 7 7 5 7 5 17 15 24 12 13 -3 7 7 11 20 12 6 4 2 12 10 11 8 22 4 9 4 2 18 9 13 23 0 11 2 9 8 5 5 10 29 4 22 -7 8 17 -2 10 12 4 6 11 -1 8 12 8 9 7 -1 9 15 13 4 33 5 12 17 18 7 9 3 11 21 16 12 16 -3 7 10 39 3 9 14 -1 2 21 8 10 23 5 9 -4 1 9 18 1 11 39 5 7 -4 17 29 9 12 0 5 0 7 11 7 7 12 5 9 2 8 8 18 0 7 11 5 12 14 11 11 12 6 15 4 11 9 1 12 1 6 10 19 6 6 3 50 4 2 7 8 21 8 10 16 8 7 3 7 12 4 8 7 9 6 0 22 4 11 9 12 3 8 4 17 11 1 4 6 27 38 7 16 7 0 40 -3 6 4 53 6 12 9 11 7 10 18 16 5 7 5 44 2 -9 13 -1 8 15 5 9 22 16 14 11 3 7 -2 3 6 8 6 14 13 6 7 11 3 4 10 3 39 7 24 4 22 35 -1 12 9 14 0 7 1 21 8 10 14 13 24 5 9 12 6 10 7 14 13 9 11 11 4 15 16 19 20 8 -5 7 0 9 16 13 11 3 12 14 15 14 16 9 15 21 10 10 4 2 2 18 33 7 16 3 9 21 13 10 42 -6 4 17 1 6 8 37 2 15 20 8 17 14 6 16 16 6 9 15 8 6 12 16 13 4 4 8 2 6 17 3 4 2 8 12 19 33 13 21 10 8 21 13 14 8 38 19 8 18 12 9 7 4 16 0 13 13 11 10 12 3 7 5 16 4 9 10 13 -4 6 18 4 27 51 19 7 8 17 20 8 4 5 21 1 54 8 5 11 3 28 17 8 18 1 23 38 5 9 18 28 6 35 6 2 26 5 13 13 16 14 13 13 11 7 13 17 8 3 16 2 9 4 14 7 8 3 10 10 11 6 10 3 10 1 11 12 11 11 7 6 2 15 -2 6 18 7 1 27 15 7 16 15 1 6 8 15 -4 2 14 16 2 5 8 9 12 5 50 19 3 11 1 12 41 2 5 4 22 4 6 11 6 5 7 16 4 3 3 9 5 30 6 12 7 -7 14 3 14 2 9 1 -1 6 9 12 9 4 3 5 5 0 11 21 4 28 8 11 8 -1 7 2 4 5 5 1 20 7 18 19 6 14 9 0 10 17 17 1 18 18 5 4 10 8 3 15 -3 7 -5 4 18 20 -1 5 12 16 6 11 17 8 3 9 8 2 10 11 11 5 15 6 60 3 7 -2 1 17 3 9 6 18 10 1 8 24 8 2 16 4 15 0 3 4 9 15 9 7 7 8 14 7 7 10 36 -4 8 8 8 -2 7 6 8 2 9 11 5 2 0 4 5 9 6 4 8 2 4 12 12 -4</t>
+  </si>
+  <si>
+    <t>2 3 0 3 1 3 6 -1 1 8 1 5 11 3 14 5 0 21 -2 1 5 0 30 2 4 1 7 1 3 2 5 -1 4 7 1 1 3 8 10 1 3 3 1 2 0 4 4 3 2 2 5 6 11 10 -1 12 23 0 1 0 3 1 9 0 3 4 4 -3 -1 5 4 4 0 -1 -3 11 10 5 2 0 19 19 1 -1 2 3 1 23 3 6 3 -2 2 2 2 4 3 3 2 4 2 9 -1 13 3 4 0 3 5 1 -2 2 3 2 -2 2 9 9 5 5 3 8 3 8 1 0 1 9 7 1 13 9 12 0 0 7 4 7 -1 3 -2 2 4 1 14 5 0 0 0 6 0 0 3 8 -1 2 4 11 6 2 6 1 4 2 3 1 12 5 8 1 0 1 1 2 3 7 5 3 10 3 2 0 2 1 2 0 4 6 12 4 2 4 5 5 2 13 1 2 2 7 2 3 7 7 0 3 3 2 -2 2 7 0 2 2 5 1 10 -1 6 11 1 5 9 11 2 7 2 4 5 -1 5 3 14 56 4 0 14 5 13 -1 4 1 -2 0 0 1 2 -4 4 2 15 2 1 8 4 -2 1 11 11 0 7 12 4 7 2 0 7 3 1 19 11 3 0 1 1 1 5 2 3 3 0 -4 6 3 10 2 1 5 2 -1 15 -1 1 -4 11 12 2 4 3 5 36 3 4 1 4 4 5 3 7 7 10 1 1 -3 -3 0 1 6 4 4 3 1 5 -2 1 2 -1 4 14 4 4 4 -1 6 5 3 15 4 1 2 -2 0 1 1 21 -1 3 1 4 3 5 6 2 7 8 5 1 18 3 6 2 6 17 2 9 5 7 3 2 7 7 20 32 0 7 1 25 5 6 3 6 0 3 0 7 0 0 3 13 -2 2 2 3 0 6 0 2 7 3 2 2 5 1 6 5 13 -2 2 3 4 4 4 9 -1 2 5 2 9 2 2 -2 8 7 3 0 5 4 6 6 2 2 12 3 8 0 2 4 70 3 -1 2 1 6 2 5 0 5 1 10 2 2 2 2 7 14 3 1 3 1 11 3 4 1 0 5 2 11 1 3 11 5 10 3 3 3 2 0 2 1 3 -1 6 10 6 3 3 3 2 5 4 2 3 8 1 3 2 5 8 1 8 5 3 4 6 9 2 9 4 4 4 8 7 1 0 3 2 8 1 5 2 15 4 4 6 6 17 4 5 3 6 6 3 5 12 0 0 14 0 4 3 7 -2 5 3 14 0 10 2 2 7 4 13 2 2 2 3 2 1 0 22 9 15 0 4 3 4 2 2 8 0 8 6 10 5 3 1 3 0 1 9 6 5 2 4 5 0 3 3 0 3 6 13 7 -3 2 -2 2 2 4 7 -4 0 1 3 2 5 2 10 -3 4 2 4 4 9 7 5 9 3 8 12 -1 3 4 6 0 -1 1 8 6 -1 11 6 13 3 0 13 3 7 2 1 14 4 1 0 3 4 21 2 3 7 10 7 6 3 2 5 10 3 3 4 6 2 7 -1 3 4 9 2 2 1 3 -3 2 -1 -1 1 7 4 5 3 2 11 5 7 2 14 18 6 1 27 3 5 12 5 4 13 5 13 12 1 1 6 3 4 3 4 0 2 2 4 11 2 0 6 1 6 2 3 0 2 3 4 1 3 4 4 2 3 2 2 0 14 9 5 5 9 1 1 0 2 17 2 3 3 12 4 -1 6 4 8 2 4 2 6 1 3 2 10 9 0 3 2 0 2 4 3 -1 7 8 4 13 17 2 3 2 0 2 3 10 7 9 12 2 5 0 0 2 1 -2 1 12 3 1 11 0 3 15 5 0 13 4 1 1 2 5 5 2 3 9 1 4 4 6 6 6 4 5 3 3 3 6 0 2 0 -1 4 10 5 3 4 7 2 7 7 9 2 2 2 10 4 4 1 4 -1 1 3 3 0</t>
+  </si>
+  <si>
+    <t>11 28 6 2 18 3 10 2 21 17 14 13 9 10 18 1 11 5 11 11 8 17 15 2 28 18 9 -1 14 16 12 2 12 15 4 8 5 9 20 14 11 12 9 1 14 7 14 17 20 14 26 8 14 19 6 5 11 19 19 18 9 20 16 9 16 8 8 8 10 5 7 11 5 4 -2 0 15 -1 4 7 -1 1 2 7 8 7 7 55 6 18 10 14 3 13 4 10 8 5 26 6 21 11 22 11 8 8 9 -7 10 15 19 38 9 4 3 29 10 8 11 20 8 12 2 0 8 7 5 11 6 4 5 10 11 5 18 5 3 13 6 8 22 10 8 9 18 15 13 12 8 16 14 6 10 1 15 16 7 3 6 11 40 59 3 11 30 18 9 19 3 10 3 7 14 3 9 2 8 9 15 12 8 1 9 8 4 16 3 20 25 8 18 21 7 11 11 12 6 0 7 6 14 32 45 8 6 33 7 15 3 6 8 8 68 8 5 8 7 10 11 4 8 8 5 22 19 15 6 1 6 5 16 8 16 5 9 13 7 6 12 9 16 11 1 5 1 10 2 4 13 7 14 4 5 18 16 1 5 6 24 6 6 6 4 12 18 6 21 -6 5 14 1 5 3 10 11 9 5 21 12 28 6 15 10 5 5 15 17 1 8 20 1 7 2 12 24 9 9 7 4 8 10 13 -3 7 41 11 11 3 5 8 17 4 6 17 10 22 9 2 7 18 15 22 5 2 12 18 20 8 22 6 17 8 19 -5 13 13 9 6 11 6 11 20 0 7 25 6 10 4 8 27 7 4 9 3 13 16 9 6 14 9 6 11 7 21 7 10 -3 5 20 7 10 8 3 16 3 10 5 3 5 7 15 13 7 6 1 9 5 25 -4 5 11 6 2 6 17 16 2 10 6 8 20 7 22 13 3 7 5 22 12 4 4 16 11 8 12 0 24 12 7 6 10 7 4 4 8 18 9 0 3 10 7 56 19 2 7 9 5 7 6 3 8 19 3 4 9 20 4 6 12 14 3 4 1 12 3 -1 10 26 4 6 14 4 1 1 28 25 -3 11 9 6 18 2 11 6 5 6 19 15 58 9 21 15 3 16 8 6 8 6 2 49 6 8 -2 11 21 7 15 24 11 30 15 4 8 14 18 22 35 7 30 16 6 28 10 15 9 4 4 -6 9 -4 16 25 4 4 5 18 5 6 13 4 2 9 1 3 5 5 12 21 5 12 6 13 7 5 1 7 7 19 10 3 9 12 7 0 15 5 6 6 7 11 9 17 9 3 11 12 9 18 8 4 9 10 10 15 14 24 2 6 6 20 6 2 8 3 7 8 10 20 7 2 15 9 5 9 20 24 22 11 2 3 12 3 19 9 17 8 3 10 8 15 3 13 7 10 8 6 6 6 7 4 35 7 12 16 3 13 9 17 14 14 18 4 5 8 3 21 5 3 14 0 19 2 0 13 4 21 6 10 8 7 14 11 9 5 11 1 4 12 8 6 -2 6 8 4 8 5 9 2 9 17 4 6 5 3 17 25 11 13 3 2 16 17 15 7 5 11 9 -2 15 12 10 25 7 2 7 5 17 59 7 36 5 11 8 3 1 9 11 4 2 19 4 9 9 6 5 11 3 3 6 7 15 9 3 7 3 10 16 10 1 11 7 9 7 6 2 3 23 13 46 1 9 1 6 39 4 3 16 10 5 3 11 8 4 6 23 18 17 4 6 16 8 8 11 10 3 13</t>
   </si>
   <si>
     <t>1N11+</t>
@@ -161,22 +161,22 @@
     <t>RM</t>
   </si>
   <si>
-    <t>64 70 66 71 51 58 70 57 61 55 60 56 56 51 65 68 47 65 59 60 66 64 62 59 68 48 50 46 49 60 50 63 65 64 51 60 63 47 63 55 65 65 63 62 65 64 68 56 53 68 67 58 65 47 54 62 56 52 61 65 64 62 56 64 51 52 63 61 57 64 58 71 62 60 65 51</t>
-  </si>
-  <si>
-    <t>33 23 30 30 10 14 41 13 15 22 23 4 21 16 22 28 13 25 26 21 24 20 31 22 3 13 23 13 12 25 22 23 18 22 11 16 16 23 21 18 22 22 21 27 16 23 24 10 16 16 24 18 19 7 16 13 10 14 26 32 22 20 18 13 15 13 15 26 15 17 0 29 21 29 20 10</t>
-  </si>
-  <si>
-    <t>0 22 34 18 0 18 16 27 14 14 25 24 12 28 23 15 44 23 31 26 17 18 17 8 23 19 15 25 25 20 48 19 24 23 19 18 22 18 23 28 38 20 15 33 21 30 22 23 37 22 11 23 12 19 18 18 22 17 17 15 17 21</t>
-  </si>
-  <si>
-    <t>41 32 32 53 62 53 59 54 50 49 44 34 39 55 49 24 46 43 40 56 48 37 41 38 33 35 38 49 23 45 41 71 38 56 48 52 37 50 33 61 46 49 41 40 43 42 54 54 48 51 52 34 55 42 34 35 54 45 42 51 41 38 48 48 43 58 61 28 42 53 55 49 41 34 50 43 51 33 30 40 50 57 57 33 63 36 44 48 50 51 45 51 51 34 34 42 58 46 52 39 51 51 46 33 36 42 39 36 41 45 46 44 36 50 46 51 63 18 50 51 47 48 28 38 33 33 31 36</t>
-  </si>
-  <si>
-    <t>0 1 0 12 0 0 0 0 7 0 9 0 0 3 0 0 2 0 0 11 0 0 2 0 0 0 0 0 0 0 12 0 0 0 0 15 0 0 0 29 5 13 0 0 0 0 24 6 8 0 17 0 8 18 0 6 17 19 0 0 0 0 0 -2 0 13 11 0 0 0 15 9 0 0 0 9 0 0 0 17 0 8 28 0 11 0 10 0 0 4 0 0 0 0 0 0 0 5 0 0 9 0 4 0 2 3 9 0 0 7 0 0 0 0 0 0 0 0 0 0 -4 0 0 14 0 39 0 1</t>
-  </si>
-  <si>
-    <t>8 20 11 0 11 0 0 15 0 9 0 6 0 0 0 14 5 0 0 0 0 11 0 6 0 1 0 10 16 20 0 8 0 0 0 0 0 0 0 0 0 0 0 0 0 12 0 0 6 0 0 20 0 19 0 0 2 11 8 0 0 0 0 0 0 19 17 0 26 0 7 0 0 0 0 0 0 2 12 6 0 4 0 0 0 12 14 0 0 0 9 0 0 0 15 11 0 -4 0 8 0 0 0 0 0 0 0 3 13 0</t>
+    <t>64 70 66 71 51 58 70 57 61 55 60 56 56 51 65 68 47 65 59 60 66 64 62 59 68 48 50 46 49 60 50 63 65 64 51 60 63 47 63 55 65 65 63 62 65 64 68 56 53 68 67 58 65 47 54 62 56 52 61 65 64 62 56 64 51 52 63 61 57 64 58 71 62 60 65 51 53 51</t>
+  </si>
+  <si>
+    <t>33 23 30 30 10 14 41 13 15 22 23 4 21 16 22 28 13 25 26 21 24 20 31 22 3 13 23 13 12 25 22 23 18 22 11 16 16 23 21 18 22 22 21 27 16 23 24 10 16 16 24 18 19 7 16 13 10 14 26 32 22 20 18 13 15 13 15 26 15 17 0 29 21 29 20 10 16 6</t>
+  </si>
+  <si>
+    <t>0 22 34 18 0 18 16 27 14 14 25 24 12 28 23 15 44 23 31 26 17 18 17 8 23 19 15 25 25 20 48 19 24 23 19 18 22 18 23 28 38 20 15 33 21 30 22 23 37 22 11 23 12 19 18 18 22 17 17 15 17 21 26 24 3</t>
+  </si>
+  <si>
+    <t>41 32 32 53 62 53 59 54 50 49 44 34 39 55 49 24 46 43 40 56 48 37 41 38 33 35 38 49 23 45 41 71 38 56 48 52 37 50 33 61 46 49 41 40 43 42 54 54 48 51 52 34 55 42 34 35 54 45 42 51 41 38 48 48 43 58 61 28 42 53 55 49 41 34 50 43 51 33 30 40 50 57 57 33 63 36 44 48 50 51 45 51 51 34 34 42 58 46 52 39 51 51 46 33 36 42 39 36 41 45 46 44 36 50 46 51 63 18 50 51 47 48 28 38 33 33 31 36 46 39 33 38</t>
+  </si>
+  <si>
+    <t>0 1 0 12 0 0 0 0 7 0 9 0 0 3 0 0 2 0 0 11 0 0 2 0 0 0 0 0 0 0 12 0 0 0 0 15 0 0 0 29 5 13 0 0 0 0 24 6 8 0 17 0 8 18 0 6 17 19 0 0 0 0 0 -2 0 13 11 0 0 0 15 9 0 0 0 9 0 0 0 17 0 8 28 0 11 0 10 0 0 4 0 0 0 0 0 0 0 5 0 0 9 0 4 0 2 3 9 0 0 7 0 0 0 0 0 0 0 0 0 0 -4 0 0 14 0 39 0 1 1 0 0 0</t>
+  </si>
+  <si>
+    <t>8 20 11 0 11 0 0 15 0 9 0 6 0 0 0 14 5 0 0 0 0 11 0 6 0 1 0 10 16 20 0 8 0 0 0 0 0 0 0 0 0 0 0 0 0 12 0 0 6 0 0 20 0 19 0 0 2 11 8 0 0 0 0 0 0 19 17 0 26 0 7 0 0 0 0 0 0 2 12 6 0 4 0 0 0 12 14 0 0 0 9 0 0 0 15 11 0 -4 0 8 0 0 0 0 0 0 0 3 13 0 15 0 17 0 0</t>
   </si>
   <si>
     <t>INT</t>
@@ -668,28 +668,28 @@
         <v>3</v>
       </c>
       <c r="C2">
-        <v>350</v>
+        <v>371</v>
       </c>
       <c r="D2">
         <v>18</v>
       </c>
       <c r="E2">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="F2">
-        <v>128</v>
+        <v>136</v>
       </c>
       <c r="G2">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="H2">
         <v>15</v>
       </c>
       <c r="I2">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="J2">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K2" t="s">
         <v>25</v>
@@ -701,10 +701,10 @@
         <v>302</v>
       </c>
       <c r="N2">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="O2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="P2">
         <v>25</v>
@@ -721,7 +721,7 @@
         <v>18</v>
       </c>
       <c r="C3">
-        <v>352</v>
+        <v>355</v>
       </c>
       <c r="D3">
         <v>8</v>
@@ -733,25 +733,25 @@
         <v>208</v>
       </c>
       <c r="G3">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="H3">
         <v>64</v>
       </c>
       <c r="I3">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="J3">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="K3" t="s">
         <v>26</v>
       </c>
       <c r="L3">
-        <v>577</v>
+        <v>588</v>
       </c>
       <c r="M3">
-        <v>349</v>
+        <v>353</v>
       </c>
       <c r="N3">
         <v>38</v>
@@ -763,7 +763,7 @@
         <v>17</v>
       </c>
       <c r="Q3">
-        <v>1005</v>
+        <v>1062</v>
       </c>
     </row>
   </sheetData>
@@ -943,28 +943,28 @@
         <v>7</v>
       </c>
       <c r="C2">
-        <v>399</v>
+        <v>409</v>
       </c>
       <c r="D2">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E2">
         <v>15</v>
       </c>
       <c r="F2">
-        <v>132</v>
+        <v>139</v>
       </c>
       <c r="G2">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="H2">
         <v>13</v>
       </c>
       <c r="I2">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="J2">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="K2" t="s">
         <v>25</v>
@@ -976,13 +976,13 @@
         <v>372</v>
       </c>
       <c r="N2">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="O2">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="P2">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="Q2">
         <v>1000</v>
@@ -993,40 +993,40 @@
         <v>18</v>
       </c>
       <c r="B3">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C3">
-        <v>355</v>
+        <v>369</v>
       </c>
       <c r="D3">
         <v>7</v>
       </c>
       <c r="E3">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="F3">
-        <v>225</v>
+        <v>231</v>
       </c>
       <c r="G3">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="H3">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="I3">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="J3">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="K3" t="s">
         <v>26</v>
       </c>
       <c r="L3">
-        <v>572</v>
+        <v>606</v>
       </c>
       <c r="M3">
-        <v>388</v>
+        <v>406</v>
       </c>
       <c r="N3">
         <v>38</v>
@@ -1038,7 +1038,7 @@
         <v>17</v>
       </c>
       <c r="Q3">
-        <v>1041</v>
+        <v>1108</v>
       </c>
     </row>
   </sheetData>
@@ -1215,13 +1215,13 @@
         <v>41</v>
       </c>
       <c r="B2">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="C2" t="s">
         <v>41</v>
       </c>
       <c r="D2">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="E2" t="s">
         <v>17</v>
@@ -1239,10 +1239,10 @@
         <v>6</v>
       </c>
       <c r="J2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="K2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="L2">
         <v>110</v>
@@ -1268,7 +1268,7 @@
         <v>42</v>
       </c>
       <c r="B3">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C3" t="s">
         <v>43</v>
@@ -1362,16 +1362,16 @@
         <v>26</v>
       </c>
       <c r="B3">
+        <v>17</v>
+      </c>
+      <c r="C3">
         <v>15</v>
       </c>
-      <c r="C3">
-        <v>14</v>
-      </c>
       <c r="D3">
+        <v>18</v>
+      </c>
+      <c r="E3">
         <v>16</v>
-      </c>
-      <c r="E3">
-        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -1403,7 +1403,7 @@
         <v>56</v>
       </c>
       <c r="B2">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C2" t="s">
         <v>60</v>
@@ -1437,7 +1437,7 @@
         <v>58</v>
       </c>
       <c r="D4">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:4">
